--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4743000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4432000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3943000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4011000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4088000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4381000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4234000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4056000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4517000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4250000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4268000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4713000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3298000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3344000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2887000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3025000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3176000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2936000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2828000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2705000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2963000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2868000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2849000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2689000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3007000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1088000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1056000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>986000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>912000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1445000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1406000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1351000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1137000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1649000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1401000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1579000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1706000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,43 +985,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5077000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2621000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3956000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>127000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9663000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2125000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>53000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E15" s="3">
         <v>840000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>796000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>797000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>779000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>759000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>746000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>752000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>720000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>710000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>712000</v>
       </c>
       <c r="N15" s="3">
         <v>712000</v>
       </c>
       <c r="O15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="P15" s="3">
         <v>665000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9176000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6805000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7639000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3949000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13618000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3685000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5699000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3457000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3683000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3631000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3515000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3401000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3672000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4433000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>696000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>599000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>417000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>886000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>735000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>867000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1041000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E20" s="3">
         <v>80000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>88000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>93000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>147000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>118000</v>
       </c>
       <c r="I20" s="3">
         <v>118000</v>
       </c>
       <c r="J20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K20" s="3">
         <v>117000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>39000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>23000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3561000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>952000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1573000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-601000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1468000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1171000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1643000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1481000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1618000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1729000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>103000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>251000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>232000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>226000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>220000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>225000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>220000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>225000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>218000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>208000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5081000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>582000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>496000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>226000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>713000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>544000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>688000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>856000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1468000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-729000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-84000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-593000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-39000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>160000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>134000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>160000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3613000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>567000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-980000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>445000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>265000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>553000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>410000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>579000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>696000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3617000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>133000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>564000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-984000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>442000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>261000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>550000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>406000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>576000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>692000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,11 +1648,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>13000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1600,11 +1660,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-80000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-88000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-93000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-118000</v>
       </c>
       <c r="I32" s="3">
         <v>-118000</v>
       </c>
       <c r="J32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-117000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-39000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-23000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3617000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>133000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>564000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-984000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>442000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>550000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>406000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>576000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>692000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3617000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>133000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>564000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-984000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>442000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>550000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>406000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>576000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>692000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2970000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3459000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2964000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1668000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>430000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>517000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>449000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>191000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>178000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>164000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>177000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3904000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4039000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3888000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4014000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3857000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2199000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2196000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1874000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2104000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2385000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2061000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2156000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2213000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E44" s="3">
         <v>635000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>608000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>536000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>554000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>505000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>487000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>453000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>481000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>498000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>501000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>465000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>463000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4044000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3933000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3622000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3179000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3116000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3215000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3167000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3384000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3247000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3309000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3331000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3195000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3311000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11577000</v>
+        <v>10165000</v>
       </c>
       <c r="E46" s="3">
         <v>11577000</v>
       </c>
       <c r="F46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="G46" s="3">
         <v>10693000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9195000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6349000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6367000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5855000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6281000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6383000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6071000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5980000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6164000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,28 +2347,28 @@
         <v>67000</v>
       </c>
       <c r="F47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="G47" s="3">
         <v>69000</v>
       </c>
       <c r="H47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="I47" s="3">
         <v>67000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>66000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>65000</v>
       </c>
       <c r="K47" s="3">
         <v>65000</v>
       </c>
       <c r="L47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="M47" s="3">
         <v>52000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>70000</v>
       </c>
       <c r="N47" s="3">
         <v>70000</v>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64577000</v>
+      </c>
+      <c r="E48" s="3">
         <v>64713000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63831000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62840000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59347000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>56965000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>55808000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>54655000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53868000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52523000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51636000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51080000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50657000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10387000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9356000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8912000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8685000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8384000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8004000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7648000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7579000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7798000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12568000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12278000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12034000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11707000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85196000</v>
+      </c>
+      <c r="E54" s="3">
         <v>85713000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84387000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82287000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76995000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71385000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69889000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68154000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68012000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71526000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70055000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69164000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68598000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2748,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1954000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1844000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1679000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>867000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1975000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1699000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1477000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1231000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1646000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1419000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1389000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1117000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1495000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2678,213 +2811,228 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>21994000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>943000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1643000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1361000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1376000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1569000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1880000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1463000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2216000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4177000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4628000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4032000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3941000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17726000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6847000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6666000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4328000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4107000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4485000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3679000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3958000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3853000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7631000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6472000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5711000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4808000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41695000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9489000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9786000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6920000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7473000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6948000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6538000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7564000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500000</v>
+        <v>23116000</v>
       </c>
       <c r="E61" s="3">
-        <v>1500000</v>
+        <v>23963000</v>
       </c>
       <c r="F61" s="3">
-        <v>350000</v>
+        <v>23961000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>22811000</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>18407000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17612000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17407000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17753000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16619000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16616000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16813000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16220000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68750000</v>
+        <v>49061000</v>
       </c>
       <c r="E62" s="3">
-        <v>66582000</v>
+        <v>46287000</v>
       </c>
       <c r="F62" s="3">
-        <v>64000000</v>
+        <v>44121000</v>
       </c>
       <c r="G62" s="3">
+        <v>41539000</v>
+      </c>
+      <c r="H62" s="3">
         <v>22397000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23793000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23430000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23844000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23658000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28148000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27600000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27208000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26622000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80060000</v>
+      </c>
+      <c r="E66" s="3">
         <v>76974000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74045000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69410000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64344000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51941000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51080000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>48423000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52492000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51416000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50811000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50658000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7892000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-250000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6623000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6057000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7043000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6596000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6482000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6205000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6070000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5751000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5136000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8739000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10342000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12877000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12651000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19444000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18809000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19731000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19220000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19034000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18639000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18353000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17940000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3617000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>133000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>564000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-984000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>442000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>550000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>406000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>576000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>692000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E83" s="3">
         <v>840000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>796000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>797000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>779000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>759000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>746000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>752000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>720000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>710000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>712000</v>
       </c>
       <c r="N83" s="3">
         <v>712000</v>
       </c>
       <c r="O83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="P83" s="3">
         <v>665000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1310000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>513000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2244000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>516000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1483000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1241000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1512000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1240000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1981000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1182000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1574000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1126000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2121000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>2547000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2128000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4175,25 +4408,28 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-267000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-266000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-243000</v>
       </c>
       <c r="O96" s="3">
         <v>-243000</v>
       </c>
       <c r="P96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1168000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2669000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>152000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>552000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-342000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>718000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-507000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>86000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-352000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>388000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-489000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>494000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1297000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1238000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-87000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>373000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-305000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>258000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4533000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4306000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4743000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4432000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3943000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4011000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4088000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4381000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4234000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4056000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4100000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4517000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4250000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4268000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4713000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3034000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3298000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3344000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2887000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3025000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3176000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2936000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2828000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2705000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2963000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2868000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2849000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2689000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3007000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1445000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1088000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1056000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>986000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>912000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1445000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1406000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1351000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1137000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1649000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1401000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1579000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1706000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1022,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1967000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>176000</v>
+      </c>
+      <c r="F14" s="3">
         <v>5077000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2621000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3956000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>127000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>9663000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2125000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>53000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>855000</v>
+      </c>
+      <c r="F15" s="3">
         <v>801000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>840000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>796000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>797000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>779000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>759000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>746000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>752000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>720000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>710000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>712000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>712000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>665000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5875000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3827000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9176000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6805000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7639000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3949000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13618000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3685000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5699000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3457000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3683000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3631000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3515000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3401000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3672000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1342000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>479000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>62000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>696000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>599000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>417000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>886000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>735000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>867000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,131 +1277,145 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F20" s="3">
         <v>71000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>80000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>88000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>93000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>147000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>118000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>118000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>117000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>34000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>47000</v>
       </c>
       <c r="N20" s="3">
         <v>34000</v>
       </c>
       <c r="O20" s="3">
+        <v>47000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>39000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>23000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>952000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1573000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-601000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1468000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1171000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1643000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1481000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1618000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1729000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F22" s="3">
         <v>719000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>60000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>103000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>251000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>232000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>226000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>220000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>225000</v>
       </c>
       <c r="M22" s="3">
         <v>220000</v>
@@ -1344,110 +1424,128 @@
         <v>225000</v>
       </c>
       <c r="O22" s="3">
+        <v>220000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>225000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>218000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>208000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1429000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>338000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>52000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>582000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>496000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>226000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>713000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>544000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>688000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>856000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-729000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-84000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-593000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>51000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>160000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>134000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>109000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>160000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1968000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>374000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>136000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>567000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-980000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>445000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>265000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>553000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>410000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>579000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>696000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1972000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>371000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>133000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>564000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-984000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>442000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>261000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>550000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>406000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>576000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>692000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,26 +1773,26 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>13000</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>13000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>-147000</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>-147000</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-71000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-80000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-88000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-93000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-147000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-118000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-118000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-117000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-47000</v>
       </c>
       <c r="N32" s="3">
         <v>-34000</v>
       </c>
       <c r="O32" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-39000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1972000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>371000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>133000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>564000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-984000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>442000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>114000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>550000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>406000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>576000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>692000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1972000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>371000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>133000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>564000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-984000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>442000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>114000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>550000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>406000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>576000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>692000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1570000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2970000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3459000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2964000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1668000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>430000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>517000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>144000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>449000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>191000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>178000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>164000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>177000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2327,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4037000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3932000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3904000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4039000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3888000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4014000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3857000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2199000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2196000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1874000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2104000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2385000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2061000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2156000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2213000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>644000</v>
+      </c>
+      <c r="F44" s="3">
         <v>647000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>635000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>608000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>536000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>554000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>505000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>487000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>453000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>481000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>498000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>501000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>465000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>463000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19355000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4022000</v>
+      </c>
+      <c r="F45" s="3">
         <v>4044000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3933000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3622000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3179000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3116000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3215000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3167000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3384000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3247000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3309000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3331000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3195000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3311000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25013000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10558000</v>
+      </c>
+      <c r="F46" s="3">
         <v>10165000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11577000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11577000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10693000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9195000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6349000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6367000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5855000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6281000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6383000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6071000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5980000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6164000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2350,31 +2560,31 @@
         <v>67000</v>
       </c>
       <c r="G47" s="3">
+        <v>67000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>67000</v>
+      </c>
+      <c r="I47" s="3">
         <v>69000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>69000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>67000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>66000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>65000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>65000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>52000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>70000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>70000</v>
       </c>
       <c r="P47" s="3">
         <v>70000</v>
@@ -2382,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>70000</v>
+      </c>
+      <c r="S47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65528000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>65391000</v>
+      </c>
+      <c r="F48" s="3">
         <v>64577000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>64713000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>63831000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>62840000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>59347000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>56965000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>55808000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>54655000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>53868000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>52523000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>51636000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>51080000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>50657000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18621000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10672000</v>
+      </c>
+      <c r="F52" s="3">
         <v>10387000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9356000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8912000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8685000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8384000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8004000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7648000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7579000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7798000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12568000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12278000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>12034000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11707000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109229000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>86688000</v>
+      </c>
+      <c r="F54" s="3">
         <v>85196000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>85713000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>84387000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82287000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>76995000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>71385000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>69889000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>68154000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>68012000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>71526000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>70055000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>69164000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>68598000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3399000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1954000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1844000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1679000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>867000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1975000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1699000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1477000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1231000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1646000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1419000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1389000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1117000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1495000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>21994000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>943000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1643000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1361000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1376000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1569000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1880000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1463000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2216000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39646000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4402000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4177000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4628000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4032000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3941000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17726000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6847000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6666000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4328000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4107000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4485000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3679000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3958000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3853000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45795000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8253000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7631000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6472000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5711000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4808000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>41695000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9489000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9786000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6920000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7129000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7473000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6948000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6538000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7564000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34920000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>23298000</v>
+      </c>
+      <c r="F61" s="3">
         <v>23116000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>23963000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>23961000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>22811000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>18407000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17612000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17407000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17753000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16619000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16616000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16813000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16220000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24713000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>49378000</v>
+      </c>
+      <c r="F62" s="3">
         <v>49061000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>46287000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>44121000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>41539000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>22397000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>23793000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23430000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23844000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>23658000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>28148000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>27600000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>27208000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>26622000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105680000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>81181000</v>
+      </c>
+      <c r="F66" s="3">
         <v>80060000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>76974000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>74045000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>69410000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>64344000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>51941000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51080000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>48423000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>48792000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>52492000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>51416000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50811000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>50658000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9486000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7518000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-114000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-250000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6623000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6057000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7043000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6596000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6482000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6205000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6070000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5751000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3549000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5507000</v>
+      </c>
+      <c r="F76" s="3">
         <v>5136000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8739000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10342000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12877000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12651000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>19444000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18809000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>19731000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>19220000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>19034000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18639000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18353000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17940000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1972000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>371000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>133000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>564000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-984000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>442000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>114000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>550000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>406000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>576000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>692000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>855000</v>
+      </c>
+      <c r="F83" s="3">
         <v>801000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>840000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>796000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>797000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>779000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>759000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>746000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>752000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>720000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>710000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>712000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>712000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>665000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="F89" s="3">
         <v>749000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1310000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>513000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2244000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>516000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1483000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1241000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1512000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1240000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1981000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1182000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1574000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1758000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1641000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>2547000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1786000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1655000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4411,25 +4879,31 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-267000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-266000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-245000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-243000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-243000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13514000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>440000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1168000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2669000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>152000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>552000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-342000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>718000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-507000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>86000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-352000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>388000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13414000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>390000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-489000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>494000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1297000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1238000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-87000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>373000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-305000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>258000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>106000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4882000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4533000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4306000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4743000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4432000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3943000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4011000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4088000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4381000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4234000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4056000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4517000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4250000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4268000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4713000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3494000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3034000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2796000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3298000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3344000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2887000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3025000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3176000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2936000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2828000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2705000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2963000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2868000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2689000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3007000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1499000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1510000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1445000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1088000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1056000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>986000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>912000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1445000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1406000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1351000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1137000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1649000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1401000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1579000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1706000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,52 +1045,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1967000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>176000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5077000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2621000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3956000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>127000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9663000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2125000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>53000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>845000</v>
+      </c>
+      <c r="E15" s="3">
         <v>874000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>855000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>801000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>840000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>796000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>797000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>779000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>759000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>746000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>752000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>720000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>710000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>712000</v>
       </c>
       <c r="Q15" s="3">
         <v>712000</v>
       </c>
       <c r="R15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="S15" s="3">
         <v>665000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4621000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5875000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3827000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9176000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6805000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7639000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3949000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13618000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3685000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5699000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3457000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3683000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3631000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3515000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3401000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3672000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>479000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>62000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>696000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>599000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>417000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>886000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>735000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>867000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1041000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E20" s="3">
         <v>112000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>113000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>71000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>80000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>88000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>93000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>147000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>118000</v>
       </c>
       <c r="L20" s="3">
         <v>118000</v>
       </c>
       <c r="M20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="N20" s="3">
         <v>117000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>39000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-356000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1447000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>952000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1573000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-601000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1468000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1171000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1643000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1618000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1729000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E22" s="3">
         <v>199000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>254000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>719000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>103000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>251000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>226000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>220000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>225000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>220000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>225000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>218000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>208000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>338000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>582000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>496000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>226000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>713000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>544000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>688000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>856000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E24" s="3">
         <v>539000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-729000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-84000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-593000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-39000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>160000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>134000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>109000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>160000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>374000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>567000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-980000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>445000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>265000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>553000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>410000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>579000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>696000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>371000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>133000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>564000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-984000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>442000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>261000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>550000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>406000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>576000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>692000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>13000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-112000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-113000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-71000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-80000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-88000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-93000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-118000</v>
       </c>
       <c r="L32" s="3">
         <v>-118000</v>
       </c>
       <c r="M32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-117000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-39000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>371000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>133000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>564000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-984000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>442000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>550000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>406000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>576000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>692000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>371000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>133000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>564000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-984000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>442000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>550000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>406000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>576000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>692000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E41" s="3">
         <v>968000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1960000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1570000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2970000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3459000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2964000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1668000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>430000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>517000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>449000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>191000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>178000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>164000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>177000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2850000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4037000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3932000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3904000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4039000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3888000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4014000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3857000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2199000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2196000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1874000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2104000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2385000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2061000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2156000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2213000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E44" s="3">
         <v>653000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>644000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>647000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>635000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>608000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>536000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>554000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>505000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>487000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>453000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>481000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>498000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>501000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>465000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>463000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5838000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19355000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4022000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4044000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3933000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3622000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3179000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3116000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3215000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3167000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3384000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3247000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3309000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3331000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3195000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3311000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9798000</v>
+      </c>
+      <c r="E46" s="3">
         <v>25013000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10558000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>11577000</v>
       </c>
       <c r="H46" s="3">
         <v>11577000</v>
       </c>
       <c r="I46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="J46" s="3">
         <v>10693000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9195000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6349000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6367000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5855000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6281000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6383000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6071000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5980000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6164000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2566,28 +2671,28 @@
         <v>67000</v>
       </c>
       <c r="I47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="J47" s="3">
         <v>69000</v>
       </c>
       <c r="K47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="L47" s="3">
         <v>67000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>66000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>65000</v>
       </c>
       <c r="N47" s="3">
         <v>65000</v>
       </c>
       <c r="O47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="P47" s="3">
         <v>52000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>70000</v>
       </c>
       <c r="Q47" s="3">
         <v>70000</v>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67334000</v>
+      </c>
+      <c r="E48" s="3">
         <v>65528000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65391000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64577000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64713000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>63831000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62840000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59347000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56965000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55808000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54655000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>53868000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52523000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>51636000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51080000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50657000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18388000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18621000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10672000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10387000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9356000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8912000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8685000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8384000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8004000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7648000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7579000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7798000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12568000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12278000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12034000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11707000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95587000</v>
+      </c>
+      <c r="E54" s="3">
         <v>109229000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>86688000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85196000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85713000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84387000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82287000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76995000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71385000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69889000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68154000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68012000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71526000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70055000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>69164000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68598000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,76 +3141,80 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2756000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3399000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1851000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1954000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1844000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1679000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>867000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1975000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1699000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1477000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1231000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1646000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1419000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1389000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1117000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1495000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2432000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2750000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3088,249 +3222,264 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>21994000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>943000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1643000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1361000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1376000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1569000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1463000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2216000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8133000</v>
+      </c>
+      <c r="E59" s="3">
         <v>39646000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4402000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4177000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4628000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4032000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3941000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17726000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6847000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6666000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4328000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4107000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4485000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3679000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3958000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3853000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13321000</v>
+      </c>
+      <c r="E60" s="3">
         <v>45795000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8253000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7631000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6472000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5711000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4808000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41695000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9489000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9786000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6920000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7129000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7473000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6948000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6538000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7564000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36311000</v>
+      </c>
+      <c r="E61" s="3">
         <v>34920000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23298000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23116000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23963000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23961000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22811000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>18407000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17612000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17407000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17753000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16619000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16616000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16813000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16220000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24891000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24713000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49378000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49061000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46287000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44121000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41539000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22397000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23793000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23430000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23844000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23658000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28148000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27600000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27208000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26622000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74775000</v>
+      </c>
+      <c r="E66" s="3">
         <v>105680000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81181000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>80060000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76974000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74045000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69410000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64344000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51941000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51080000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48423000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48792000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52492000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51416000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50811000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50658000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9400000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-250000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6623000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6057000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7043000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6596000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6482000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6205000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6070000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5751000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20812000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3549000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5507000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5136000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8739000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10342000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12877000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12651000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19444000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18809000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19731000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19220000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19034000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18639000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18353000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17940000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>371000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>133000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>564000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-984000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>442000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>550000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>406000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>576000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>692000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>845000</v>
+      </c>
+      <c r="E83" s="3">
         <v>874000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>855000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>801000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>840000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>796000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>797000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>779000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>759000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>746000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>752000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>720000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>710000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>712000</v>
       </c>
       <c r="Q83" s="3">
         <v>712000</v>
       </c>
       <c r="R83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="S83" s="3">
         <v>665000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22510000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1686000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1605000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>749000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1310000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>513000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2244000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>516000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1483000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1241000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1512000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1240000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1981000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1574000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1126000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2076000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>2547000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2083000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4885,25 +5119,28 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-267000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-266000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-243000</v>
       </c>
       <c r="R96" s="3">
         <v>-243000</v>
       </c>
       <c r="S96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9891000</v>
+      </c>
+      <c r="E100" s="3">
         <v>13514000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>440000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1168000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2669000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>152000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>552000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-342000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>718000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-507000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>86000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-352000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>388000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14702000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13414000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>390000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-489000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>494000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1297000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1238000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-87000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>373000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-305000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>258000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>106000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4748000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4882000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4533000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4306000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4743000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4432000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3943000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4011000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4088000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4381000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4234000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4056000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4100000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4517000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4250000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4268000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4713000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3258000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3494000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3034000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2796000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3298000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3344000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2887000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3025000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3176000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2936000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2828000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2705000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2963000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2868000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2849000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2689000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3007000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1490000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1388000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1499000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1510000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1445000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1088000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1056000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>986000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>912000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1445000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1406000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1351000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1137000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1649000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1401000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1579000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1706000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,55 +1065,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E14" s="3">
         <v>282000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1967000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>176000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5077000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2621000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3956000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>127000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9663000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2125000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>53000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1104,64 +1124,70 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E15" s="3">
         <v>845000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>874000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>855000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>801000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>840000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>796000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>797000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>779000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>759000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>746000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>752000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>720000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>710000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>712000</v>
       </c>
       <c r="R15" s="3">
         <v>712000</v>
       </c>
       <c r="S15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="T15" s="3">
         <v>665000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4350000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4621000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5875000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3827000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9176000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6805000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7639000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3949000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13618000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3685000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5699000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3457000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3683000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3631000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3515000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3401000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3672000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E18" s="3">
         <v>261000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>479000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>62000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>696000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>599000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>417000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>886000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>735000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>867000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1041000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E20" s="3">
         <v>107000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>112000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>113000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>71000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>80000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>88000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>93000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>147000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>118000</v>
       </c>
       <c r="M20" s="3">
         <v>118000</v>
       </c>
       <c r="N20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="O20" s="3">
         <v>117000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>39000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1213000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-356000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1447000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>952000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1573000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-601000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1468000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1171000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1643000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1481000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1618000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1729000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E22" s="3">
         <v>391000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>199000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>254000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>719000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>103000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>251000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>226000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>220000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>225000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>220000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>225000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>218000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>208000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>338000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>582000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>496000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>226000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>713000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>544000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>688000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>856000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-109000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>539000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-729000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-84000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-593000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>160000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>134000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>109000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>160000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E26" s="3">
         <v>86000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>374000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>567000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-980000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>445000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>265000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>553000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>410000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>579000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>696000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E27" s="3">
         <v>83000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>371000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>133000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>564000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-984000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>442000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>261000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>550000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>406000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>576000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>692000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>13000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-107000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-112000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-113000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-71000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-80000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-88000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-93000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-118000</v>
       </c>
       <c r="M32" s="3">
         <v>-118000</v>
       </c>
       <c r="N32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-117000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-39000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E33" s="3">
         <v>83000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>371000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>133000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>564000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-984000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>442000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>550000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>406000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>576000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>692000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E35" s="3">
         <v>83000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>371000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>133000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>564000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-984000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>442000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>550000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>406000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>576000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>692000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E41" s="3">
         <v>464000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>968000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1960000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1570000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2970000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3459000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2964000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1668000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>430000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>517000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>449000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>191000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>178000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>164000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>177000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2850000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4037000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3932000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3904000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4039000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3888000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4014000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3857000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2199000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2196000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1874000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2104000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2385000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2061000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2156000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2213000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E44" s="3">
         <v>646000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>653000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>644000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>647000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>635000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>608000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>536000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>554000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>505000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>487000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>453000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>481000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>498000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>501000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>465000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>463000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5435000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5838000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19355000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4022000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4044000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3933000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3622000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3179000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3116000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3215000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3167000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3384000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3247000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3309000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3331000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3195000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3311000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9602000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9798000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25013000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10558000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>11577000</v>
       </c>
       <c r="I46" s="3">
         <v>11577000</v>
       </c>
       <c r="J46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10693000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9195000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6349000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6367000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5855000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6281000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6383000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6071000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5980000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6164000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2674,28 +2779,28 @@
         <v>67000</v>
       </c>
       <c r="J47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="K47" s="3">
         <v>69000</v>
       </c>
       <c r="L47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="M47" s="3">
         <v>67000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>65000</v>
       </c>
       <c r="O47" s="3">
         <v>65000</v>
       </c>
       <c r="P47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>52000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>70000</v>
       </c>
       <c r="R47" s="3">
         <v>70000</v>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68719000</v>
+      </c>
+      <c r="E48" s="3">
         <v>67334000</v>
       </c>
-      <c r="E48" s="3">
-        <v>65528000</v>
-      </c>
       <c r="F48" s="3">
+        <v>66174000</v>
+      </c>
+      <c r="G48" s="3">
         <v>65391000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64577000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64713000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>63831000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62840000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59347000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56965000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>55808000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54655000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>53868000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52523000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51636000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51080000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50657000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19468000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18388000</v>
       </c>
-      <c r="E52" s="3">
-        <v>18621000</v>
-      </c>
       <c r="F52" s="3">
+        <v>17975000</v>
+      </c>
+      <c r="G52" s="3">
         <v>10672000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10387000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9356000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8912000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8685000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8384000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8004000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7648000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7579000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7798000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12568000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12278000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12034000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11707000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97856000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95587000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109229000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>86688000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85196000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85713000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84387000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82287000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76995000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71385000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69889000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68154000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68012000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71526000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70055000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>69164000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68598000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,82 +3272,86 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2756000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3399000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1851000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1954000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1844000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1679000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>867000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1975000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1699000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1477000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1231000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1646000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1389000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1117000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1495000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3575000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2432000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2750000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3225,261 +3359,276 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>21994000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>943000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1643000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1361000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1376000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1569000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1880000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1463000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2216000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7604000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8133000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39646000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4402000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4177000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4628000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4032000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3941000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17726000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6847000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6666000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4328000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4107000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4485000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3679000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3958000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3853000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13581000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13321000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45795000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8253000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7631000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6472000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5711000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4808000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41695000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9489000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9786000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6920000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7129000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7473000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6948000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6538000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7564000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37288000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36311000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>34920000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23298000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23116000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23963000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23961000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22811000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>18407000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17612000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17407000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17753000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16619000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16616000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16813000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16220000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25734000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24891000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24713000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49378000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49061000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46287000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44121000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41539000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22397000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23793000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23430000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23844000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23658000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28148000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27600000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27208000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26622000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76855000</v>
+      </c>
+      <c r="E66" s="3">
         <v>74775000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105680000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>81181000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>80060000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76974000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74045000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69410000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64344000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51941000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51080000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48423000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48792000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52492000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51416000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50811000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50658000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9196000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-250000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6623000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6057000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7043000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6596000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6482000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6205000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6070000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5751000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21001000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20812000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3549000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5507000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5136000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8739000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10342000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12877000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12651000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19444000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18809000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19731000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19220000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19034000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18639000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18353000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17940000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E81" s="3">
         <v>83000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>371000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>133000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>564000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-984000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>442000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>550000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>406000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>576000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>692000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E83" s="3">
         <v>845000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>874000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>855000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>801000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>840000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>796000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>797000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>779000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>759000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>746000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>752000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>720000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>710000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>712000</v>
       </c>
       <c r="R83" s="3">
         <v>712000</v>
       </c>
       <c r="S83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="T83" s="3">
         <v>665000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1686000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1605000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>749000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1310000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>513000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2244000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>516000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1483000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1241000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1512000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1240000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1981000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1182000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1574000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1126000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2215000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>2547000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2224000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5122,25 +5356,28 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-267000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-243000</v>
       </c>
       <c r="S96" s="3">
         <v>-243000</v>
       </c>
       <c r="T96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="E100" s="3">
         <v>9891000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13514000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>440000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1168000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2669000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>152000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>552000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-342000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>718000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-507000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>86000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-352000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>388000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13414000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>390000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-489000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>494000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1297000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1238000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-87000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>373000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-305000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>258000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>106000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4716000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4748000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4882000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4533000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4306000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4743000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4432000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3943000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4011000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4088000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4381000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4234000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4056000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4100000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4517000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4250000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4268000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4713000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3233000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3258000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3494000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3034000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2796000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3298000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3344000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2887000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3025000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3176000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2936000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2828000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2705000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2963000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2868000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2849000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2689000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3007000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1490000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1388000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1499000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1510000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1445000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1088000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1056000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>986000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>912000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1445000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1406000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1351000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1649000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1401000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1579000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1706000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,58 +1085,61 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E14" s="3">
         <v>198000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>282000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1967000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>176000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5077000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2621000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3956000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>127000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9663000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2125000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>53000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1127,67 +1147,73 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E15" s="3">
         <v>894000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>845000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>874000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>855000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>801000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>840000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>796000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>797000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>779000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>759000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>746000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>752000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>720000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>710000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>712000</v>
       </c>
       <c r="S15" s="3">
         <v>712000</v>
       </c>
       <c r="T15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="U15" s="3">
         <v>665000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4412000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4350000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4621000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5875000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3827000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9176000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6805000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7639000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3949000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13618000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3685000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5699000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3457000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3683000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3631000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3515000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3401000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3672000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E18" s="3">
         <v>398000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>261000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>479000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>62000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>696000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>599000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>417000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>886000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>735000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>867000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1041000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E20" s="3">
         <v>190000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>107000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>112000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>113000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>71000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>80000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>88000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>93000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>147000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>118000</v>
       </c>
       <c r="N20" s="3">
         <v>118000</v>
       </c>
       <c r="O20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="P20" s="3">
         <v>117000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>47000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>39000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>23000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1321000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1482000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1213000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-356000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1447000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>952000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1573000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-601000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1468000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1171000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1643000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1481000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1618000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1729000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E22" s="3">
         <v>416000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>391000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>199000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>254000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>719000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>103000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>251000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>232000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>226000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>220000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>225000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>220000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>225000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>218000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>208000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E23" s="3">
         <v>172000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>338000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>582000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>496000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>226000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>713000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>544000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>688000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>856000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-109000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>539000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-729000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-84000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-593000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>160000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>134000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>109000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>160000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E26" s="3">
         <v>204000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>86000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>374000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>567000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-980000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>445000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>265000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>553000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>410000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>579000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>696000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E27" s="3">
         <v>200000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>371000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>133000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>564000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-984000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>442000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>261000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>550000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>406000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>576000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>692000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1907,11 +1968,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>13000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-190000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-107000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-112000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-113000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-71000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-80000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-88000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-93000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-118000</v>
       </c>
       <c r="N32" s="3">
         <v>-118000</v>
       </c>
       <c r="O32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-117000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-47000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-39000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-23000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E33" s="3">
         <v>200000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>371000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>133000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>564000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-984000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>442000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>550000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>406000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>576000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>692000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E35" s="3">
         <v>200000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>371000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>133000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>564000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-984000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>442000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>550000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>406000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>576000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>692000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E41" s="3">
         <v>484000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>464000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>968000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1960000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1570000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2970000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3459000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2964000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1668000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>430000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>517000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>449000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>191000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>178000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>164000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>177000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,249 +2609,264 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2992000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3055000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2850000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4037000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3932000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3904000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4039000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3888000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4014000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3857000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2199000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2196000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1874000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2104000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2385000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2061000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2156000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2213000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E44" s="3">
         <v>628000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>646000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>653000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>644000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>647000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>635000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>608000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>536000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>554000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>505000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>487000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>453000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>481000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>498000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>501000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>465000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>463000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5296000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5435000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5838000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19355000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4022000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4044000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3933000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3622000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3179000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3116000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3215000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3167000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3384000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3247000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3309000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3331000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3195000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3311000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9067000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9602000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9798000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25013000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10558000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>11577000</v>
       </c>
       <c r="J46" s="3">
         <v>11577000</v>
       </c>
       <c r="K46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="L46" s="3">
         <v>10693000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9195000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6349000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6367000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5855000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6281000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6383000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6071000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5980000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6164000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="E47" s="3">
         <v>67000</v>
@@ -2782,28 +2887,28 @@
         <v>67000</v>
       </c>
       <c r="K47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="L47" s="3">
         <v>69000</v>
       </c>
       <c r="M47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="N47" s="3">
         <v>67000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>65000</v>
       </c>
       <c r="P47" s="3">
         <v>65000</v>
       </c>
       <c r="Q47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="R47" s="3">
         <v>52000</v>
-      </c>
-      <c r="R47" s="3">
-        <v>70000</v>
       </c>
       <c r="S47" s="3">
         <v>70000</v>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69799000</v>
+      </c>
+      <c r="E48" s="3">
         <v>68719000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67334000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66174000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65391000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64577000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64713000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63831000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62840000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59347000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56965000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>55808000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>54655000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>53868000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52523000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51636000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51080000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50657000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19624000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19468000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18388000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17975000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10672000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10387000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9356000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8912000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8685000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8384000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8004000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7648000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7579000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7798000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12568000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12278000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12034000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11707000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98558000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97856000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95587000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109229000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>86688000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85196000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85713000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84387000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82287000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76995000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71385000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69889000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68154000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68012000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71526000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70055000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>69164000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68598000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,88 +3403,92 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2141000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2402000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2756000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3399000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1851000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1954000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1844000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1679000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>867000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1975000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1699000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1477000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1231000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1419000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1389000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1117000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1495000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2970000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3575000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2432000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2750000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3362,273 +3496,288 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>21994000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>943000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1643000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1361000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1376000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1569000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1880000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1463000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2216000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7106000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7604000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8133000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39646000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4402000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4177000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4628000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4032000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3941000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17726000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6847000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6666000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4328000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4107000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4485000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3679000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3958000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3853000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12217000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13581000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13321000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45795000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8253000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7631000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6472000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5711000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4808000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41695000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9489000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9786000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6920000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7129000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7473000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6948000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6538000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7564000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37801000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37288000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36311000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34920000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23298000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23116000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23963000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23961000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22811000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>18407000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17612000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17407000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17753000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16619000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16616000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16813000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16220000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27161000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25734000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24891000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24713000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49378000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49061000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46287000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44121000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41539000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22397000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23793000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23430000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23844000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23658000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28148000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27600000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27208000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26622000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77431000</v>
+      </c>
+      <c r="E66" s="3">
         <v>76855000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74775000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105680000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81181000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>80060000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76974000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74045000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69410000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64344000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51941000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51080000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48423000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48792000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52492000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51416000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50811000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>50658000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9073000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-250000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6623000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6057000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7043000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6596000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6482000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6205000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6070000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5751000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21127000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21001000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20812000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3549000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5507000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5136000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8739000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10342000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12877000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12651000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19444000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18809000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19731000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19220000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19034000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18639000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18353000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17940000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E81" s="3">
         <v>200000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>371000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>133000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>564000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-984000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>442000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>550000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>406000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>576000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>692000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E83" s="3">
         <v>894000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>845000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>874000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>855000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>801000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>840000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>796000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>797000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>779000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>759000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>746000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>752000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>720000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>710000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>712000</v>
       </c>
       <c r="S83" s="3">
         <v>712000</v>
       </c>
       <c r="T83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="U83" s="3">
         <v>665000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="E89" s="3">
         <v>89000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1686000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1605000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>749000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1310000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>513000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2244000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>516000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1483000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1241000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1512000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1240000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1981000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1182000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1574000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1126000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1778000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>2547000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1796000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5359,25 +5593,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-266000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-243000</v>
       </c>
       <c r="T96" s="3">
         <v>-243000</v>
       </c>
       <c r="U96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2083000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9891000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13514000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>440000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>17000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1168000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2669000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>152000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>552000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-342000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>718000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-507000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>86000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-352000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>388000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13414000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>390000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-489000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>494000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1297000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1238000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-87000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>373000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-305000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>258000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>106000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5215000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4716000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4748000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4882000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4533000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4306000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4743000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4432000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3943000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4011000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4088000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4381000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4234000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4056000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4100000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4517000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4250000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4268000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4713000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3617000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3233000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3258000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3494000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3034000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2796000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3298000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3344000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2887000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3025000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3176000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2936000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2828000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2705000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2963000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2868000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2849000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2689000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3007000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1483000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1490000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1388000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1499000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1510000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1445000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1088000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1056000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>986000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>912000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1445000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1406000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1137000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1649000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1401000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1579000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1706000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,61 +1105,64 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E14" s="3">
         <v>291000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>198000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>282000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1967000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>176000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5077000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2621000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3956000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>127000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9663000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2125000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>53000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1150,70 +1170,76 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E15" s="3">
         <v>888000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>894000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>845000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>874000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>855000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>801000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>840000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>796000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>797000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>779000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>759000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>746000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>752000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>720000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>710000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>712000</v>
       </c>
       <c r="T15" s="3">
         <v>712000</v>
       </c>
       <c r="U15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="V15" s="3">
         <v>665000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4592000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4412000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4350000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4621000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5875000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3827000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9176000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6805000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7639000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3949000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13618000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3685000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5699000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3457000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3683000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3631000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3515000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3401000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3672000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E18" s="3">
         <v>304000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>398000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>261000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>479000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>62000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>696000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>599000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>417000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>886000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>735000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>867000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1041000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E20" s="3">
         <v>129000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>190000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>107000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>112000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>113000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>71000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>80000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>88000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>93000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>147000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>118000</v>
       </c>
       <c r="O20" s="3">
         <v>118000</v>
       </c>
       <c r="P20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>117000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>47000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>39000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>23000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1321000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1482000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1213000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-356000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1447000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>952000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1573000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-601000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1468000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1171000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1643000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1481000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1618000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1729000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E22" s="3">
         <v>408000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>416000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>391000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>199000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>254000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>719000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>103000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>251000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>232000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>226000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>220000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>225000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>220000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>225000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>218000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>208000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E23" s="3">
         <v>25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>172000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>338000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>582000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>496000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>226000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>713000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>544000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>688000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>856000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-98000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-32000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-109000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>539000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-729000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-84000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-593000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>160000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>134000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>109000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>160000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E26" s="3">
         <v>123000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>204000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>86000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>374000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>567000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-980000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>445000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>265000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>553000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>410000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>579000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>696000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E27" s="3">
         <v>120000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>371000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>133000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>564000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-984000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>442000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>261000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>550000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>406000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>576000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>692000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,11 +2032,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>13000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-129000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-190000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-107000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-112000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-113000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-71000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-80000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-88000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-93000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-118000</v>
       </c>
       <c r="O32" s="3">
         <v>-118000</v>
       </c>
       <c r="P32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-47000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-39000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-23000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E33" s="3">
         <v>120000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>371000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>133000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>564000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-984000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>442000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>550000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>406000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>576000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>692000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E35" s="3">
         <v>120000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>371000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>133000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>564000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-984000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>442000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>550000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>406000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>576000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>692000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E41" s="3">
         <v>229000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>484000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>464000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>968000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1960000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1570000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2970000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3459000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2964000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1668000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>430000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>517000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>144000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>449000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>191000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>178000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>164000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>177000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2702,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3232000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2992000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3055000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2850000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4037000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3932000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3904000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4039000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3888000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4014000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3857000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2199000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2196000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1874000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2104000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2385000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2061000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2156000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2213000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E44" s="3">
         <v>550000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>628000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>646000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>653000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>644000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>647000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>635000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>608000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>536000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>554000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>505000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>487000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>453000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>481000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>498000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>501000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>465000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>463000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6185000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5296000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5435000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5838000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19355000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4022000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4044000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3933000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3622000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3179000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3116000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3215000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3167000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3384000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3247000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3309000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3331000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3195000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3311000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10289000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9067000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9602000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9798000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25013000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10558000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>11577000</v>
       </c>
       <c r="K46" s="3">
         <v>11577000</v>
       </c>
       <c r="L46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="M46" s="3">
         <v>10693000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9195000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6349000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6367000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5855000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6281000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6383000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6071000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5980000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6164000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2869,7 +2974,7 @@
         <v>68000</v>
       </c>
       <c r="E47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="F47" s="3">
         <v>67000</v>
@@ -2890,28 +2995,28 @@
         <v>67000</v>
       </c>
       <c r="L47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="M47" s="3">
         <v>69000</v>
       </c>
       <c r="N47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="O47" s="3">
         <v>67000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>65000</v>
       </c>
       <c r="Q47" s="3">
         <v>65000</v>
       </c>
       <c r="R47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="S47" s="3">
         <v>52000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>70000</v>
       </c>
       <c r="T47" s="3">
         <v>70000</v>
@@ -2922,70 +3027,76 @@
       <c r="V47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70737000</v>
+      </c>
+      <c r="E48" s="3">
         <v>69799000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68719000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67334000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66174000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65391000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64577000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64713000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63831000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62840000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59347000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56965000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>55808000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>54655000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53868000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52523000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51636000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>51080000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50657000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19400000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19624000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19468000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18388000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17975000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10672000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10387000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9356000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8912000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8685000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8384000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8004000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7648000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7579000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7798000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12568000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12278000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12034000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11707000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100494000</v>
+      </c>
+      <c r="E54" s="3">
         <v>98558000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97856000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95587000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109229000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>86688000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85196000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85713000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84387000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82287000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76995000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71385000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>69889000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68154000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68012000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71526000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70055000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>69164000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68598000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,94 +3534,98 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2141000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2402000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2756000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3399000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1851000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1954000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1844000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1679000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>867000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1975000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1699000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1477000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1231000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1646000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1419000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1389000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1117000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1495000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6633000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2970000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3575000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2432000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2750000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3499,285 +3633,300 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>21994000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>943000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1643000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1361000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1376000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1569000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1880000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1463000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2216000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6610000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7106000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7604000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8133000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39646000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4402000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4177000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4628000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4032000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3941000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17726000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6847000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6666000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4328000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4107000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4485000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3679000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3958000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3853000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15493000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12217000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13581000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13321000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45795000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8253000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7631000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6472000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5711000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4808000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41695000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9489000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9786000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6920000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7129000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7473000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6948000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6538000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7564000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35955000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37801000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37288000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36311000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34920000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23298000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23116000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23963000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23961000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22811000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>18407000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17612000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17407000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17753000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16619000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16616000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16813000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16220000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27247000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27161000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25734000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24891000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24713000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49378000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>49061000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46287000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44121000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41539000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22397000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23793000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23430000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23844000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23658000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28148000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27600000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27208000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26622000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78947000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77431000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76855000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74775000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>105680000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81181000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>80060000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76974000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74045000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69410000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64344000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51941000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51080000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48423000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48792000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52492000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51416000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>50811000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>50658000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8672000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-250000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6623000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6057000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7043000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6596000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6482000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6205000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6070000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5751000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21547000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21127000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21001000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20812000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3549000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5507000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5136000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8739000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10342000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12877000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12651000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19444000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18809000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19731000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19220000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19034000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18639000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18353000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17940000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E81" s="3">
         <v>120000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>371000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>133000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>564000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-984000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>442000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>550000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>406000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>576000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>692000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E83" s="3">
         <v>888000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>894000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>845000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>874000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>855000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>801000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>840000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>796000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>797000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>779000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>759000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>746000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>752000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>720000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>710000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>712000</v>
       </c>
       <c r="T83" s="3">
         <v>712000</v>
       </c>
       <c r="U83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="V83" s="3">
         <v>665000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1198000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>89000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1686000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1605000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>749000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1310000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>513000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2244000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>516000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1483000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1241000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1512000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1240000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1981000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1182000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1574000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1126000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1842000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>2547000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1772000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5596,25 +5830,28 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-267000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-266000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-243000</v>
       </c>
       <c r="U96" s="3">
         <v>-243000</v>
       </c>
       <c r="V96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="E100" s="3">
         <v>229000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2083000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9891000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13514000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>440000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1168000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2669000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>152000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>552000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>718000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-507000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>86000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-352000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>388000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-369000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-52000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13414000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>390000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-489000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>494000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1297000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1238000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-87000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>373000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-305000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>258000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>106000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5465000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5215000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4716000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4748000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4882000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4533000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4306000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4743000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4432000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3943000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4011000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4088000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4381000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4234000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4056000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4100000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4517000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4250000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4268000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4713000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4104000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3617000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3233000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3258000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3494000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3034000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2796000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3298000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3344000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2887000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3025000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3176000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2936000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2828000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2705000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2963000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2868000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2849000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2689000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3007000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1598000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1483000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1490000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1388000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1499000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1510000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1445000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1088000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1056000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>986000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>912000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1445000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1351000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1137000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1649000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1401000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1579000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1706000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,64 +1124,67 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E14" s="3">
         <v>124000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>291000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>198000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>282000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1967000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>176000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5077000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2621000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3956000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>127000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9663000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2125000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>53000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1173,73 +1192,79 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E15" s="3">
         <v>851000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>888000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>894000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>845000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>874000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>855000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>801000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>840000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>796000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>797000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>779000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>759000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>746000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>752000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>720000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>710000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>712000</v>
       </c>
       <c r="U15" s="3">
         <v>712000</v>
       </c>
       <c r="V15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="W15" s="3">
         <v>665000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5161000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4592000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4412000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4350000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4621000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5875000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3827000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9176000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6805000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7639000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3949000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13618000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3685000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5699000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3457000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3683000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3631000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3515000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3401000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3672000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E18" s="3">
         <v>623000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>304000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>398000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>261000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>479000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>62000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>696000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>599000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>417000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>886000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>735000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>867000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1041000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E20" s="3">
         <v>143000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>129000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>190000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>107000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>112000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>113000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>71000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>80000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>88000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>93000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>147000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>118000</v>
       </c>
       <c r="P20" s="3">
         <v>118000</v>
       </c>
       <c r="Q20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="R20" s="3">
         <v>117000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>47000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>39000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>23000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1617000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1321000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1482000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1213000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-356000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1447000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>952000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1573000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-601000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1468000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1171000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1643000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1481000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1618000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1729000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E22" s="3">
         <v>398000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>408000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>416000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>391000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>199000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>254000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>719000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>103000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>251000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>232000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>226000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>220000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>225000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>220000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>225000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>218000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>208000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E23" s="3">
         <v>368000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>172000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>338000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>582000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>496000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>226000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>713000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>544000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>688000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>856000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-98000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-109000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>539000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-729000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-84000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-593000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>160000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>134000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>109000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>160000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1088000</v>
+      </c>
+      <c r="E26" s="3">
         <v>401000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>123000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>204000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>86000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>374000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>567000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-980000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>445000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>265000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>553000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>410000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>579000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>696000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1091000</v>
+      </c>
+      <c r="E27" s="3">
         <v>397000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>120000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>371000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>133000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>564000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-984000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>442000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>261000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>550000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>406000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>576000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>692000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2035,11 +2095,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>13000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-143000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-129000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-190000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-107000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-112000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-113000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-71000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-80000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-88000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-93000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-118000</v>
       </c>
       <c r="P32" s="3">
         <v>-118000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-117000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-47000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-39000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-23000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1091000</v>
+      </c>
+      <c r="E33" s="3">
         <v>397000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>371000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>133000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>564000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-984000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>442000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>550000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>406000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>576000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>692000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1091000</v>
+      </c>
+      <c r="E35" s="3">
         <v>397000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>371000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>133000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>564000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-984000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>442000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>550000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>406000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>576000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>692000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E41" s="3">
         <v>307000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>229000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>484000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>464000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>968000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1960000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1570000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2970000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3459000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2964000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1668000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>430000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>517000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>144000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>449000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>191000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>178000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>164000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>177000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3839000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3232000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2992000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3055000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2850000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4037000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3932000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3904000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4039000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3888000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4014000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3857000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2199000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1874000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2104000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2385000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2061000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2156000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2213000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E44" s="3">
         <v>565000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>550000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>628000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>646000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>653000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>644000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>647000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>635000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>608000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>536000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>554000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>505000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>487000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>453000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>481000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>498000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>501000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>465000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>463000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6699000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6185000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5296000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5435000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5838000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19355000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4022000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4044000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3933000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3622000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3179000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3116000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3215000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3167000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3384000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3247000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3309000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3331000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3195000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3311000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11527000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10289000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9067000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9602000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9798000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25013000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10558000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>11577000</v>
       </c>
       <c r="L46" s="3">
         <v>11577000</v>
       </c>
       <c r="M46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="N46" s="3">
         <v>10693000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9195000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6349000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6367000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5855000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6281000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6383000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6071000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5980000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6164000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2977,7 +3081,7 @@
         <v>68000</v>
       </c>
       <c r="F47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="G47" s="3">
         <v>67000</v>
@@ -2998,28 +3102,28 @@
         <v>67000</v>
       </c>
       <c r="M47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="N47" s="3">
         <v>69000</v>
       </c>
       <c r="O47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="P47" s="3">
         <v>67000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>65000</v>
       </c>
       <c r="R47" s="3">
         <v>65000</v>
       </c>
       <c r="S47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="T47" s="3">
         <v>52000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>70000</v>
       </c>
       <c r="U47" s="3">
         <v>70000</v>
@@ -3030,73 +3134,79 @@
       <c r="W47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71696000</v>
+      </c>
+      <c r="E48" s="3">
         <v>70737000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69799000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68719000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67334000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66174000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65391000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64577000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64713000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63831000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62840000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59347000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56965000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55808000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>54655000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53868000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52523000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>51636000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>51080000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50657000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20270000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19400000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19624000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19468000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18388000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17975000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10672000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10387000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9356000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8912000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8685000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8384000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8004000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7648000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7579000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7798000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12568000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12278000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12034000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11707000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103561000</v>
+      </c>
+      <c r="E54" s="3">
         <v>100494000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98558000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97856000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95587000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109229000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>86688000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85196000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85713000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84387000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82287000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76995000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71385000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>69889000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68154000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68012000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71526000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70055000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>69164000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68598000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,100 +3664,104 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2697000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2250000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2141000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2402000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2756000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3399000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1851000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1954000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1844000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1679000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>867000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1975000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1699000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1477000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1231000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1646000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1419000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1389000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1117000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1495000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6988000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6633000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2970000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3575000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2432000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2750000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3636,297 +3769,312 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>21994000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>943000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1643000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1361000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1376000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1569000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1880000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1463000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2216000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8099000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6610000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7106000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7604000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8133000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39646000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4402000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4177000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4628000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4032000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3941000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17726000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6847000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6666000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4328000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4107000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4485000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3679000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3958000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3853000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17784000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15493000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12217000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13581000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13321000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45795000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8253000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7631000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6472000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5711000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4808000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41695000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9489000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9786000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6920000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7129000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7473000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6948000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6538000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7564000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35959000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35955000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37801000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37288000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36311000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>34920000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23298000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23116000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23963000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23961000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22811000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>18407000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17612000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17407000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17753000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16619000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16616000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16813000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16220000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29091000</v>
+      </c>
+      <c r="E62" s="3">
         <v>27247000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27161000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25734000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24891000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24713000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>49378000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>49061000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46287000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44121000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41539000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22397000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23793000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23430000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23844000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23658000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28148000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27600000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27208000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26622000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83086000</v>
+      </c>
+      <c r="E66" s="3">
         <v>78947000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77431000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76855000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74775000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105680000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>81181000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>80060000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76974000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74045000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69410000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64344000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51941000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51080000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48423000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48792000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52492000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51416000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>50811000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50658000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9760000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-250000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6623000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6057000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7043000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6596000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6482000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6205000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6070000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5751000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20475000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21547000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21127000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21001000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20812000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3549000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5507000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5136000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8739000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10342000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12877000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12651000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19444000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18809000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19731000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19220000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19034000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18639000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18353000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17940000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1091000</v>
+      </c>
+      <c r="E81" s="3">
         <v>397000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>371000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>133000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>564000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-984000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>442000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>550000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>406000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>576000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>692000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E83" s="3">
         <v>851000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>888000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>894000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>845000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>874000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>855000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>801000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>840000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>796000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>797000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>779000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>759000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>746000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>752000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>720000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>710000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>712000</v>
       </c>
       <c r="U83" s="3">
         <v>712000</v>
       </c>
       <c r="V83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="W83" s="3">
         <v>665000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>823000</v>
+      </c>
+      <c r="E89" s="3">
         <v>32000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1198000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>89000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1686000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1605000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>749000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1310000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>513000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2244000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>516000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1483000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1241000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1512000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1240000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1981000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1182000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1574000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1126000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1848000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>2547000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1110000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5833,25 +6066,28 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-267000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-266000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-243000</v>
       </c>
       <c r="V96" s="3">
         <v>-243000</v>
       </c>
       <c r="W96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1801000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>229000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2083000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9891000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13514000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>440000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1168000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2669000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>152000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>552000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-342000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>718000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-507000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>86000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-352000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>388000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-231000</v>
+      </c>
+      <c r="E102" s="3">
         <v>61000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-369000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13414000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>390000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-489000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>494000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1297000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1238000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-87000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>373000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-305000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>258000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>106000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5246000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5465000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5215000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4716000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4748000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4882000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4533000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4306000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4743000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4432000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3943000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4011000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4088000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4381000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4234000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4056000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4100000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4517000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4250000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4268000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4713000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4104000</v>
+        <v>3753000</v>
       </c>
       <c r="E9" s="3">
-        <v>3617000</v>
+        <v>4013000</v>
       </c>
       <c r="F9" s="3">
-        <v>3233000</v>
+        <v>3504000</v>
       </c>
       <c r="G9" s="3">
+        <v>3157000</v>
+      </c>
+      <c r="H9" s="3">
         <v>3258000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3494000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3034000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2796000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3298000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3344000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2887000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3025000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3176000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2936000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2828000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2705000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2963000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2868000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2849000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2689000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3007000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1361000</v>
+        <v>1493000</v>
       </c>
       <c r="E10" s="3">
-        <v>1598000</v>
+        <v>1452000</v>
       </c>
       <c r="F10" s="3">
-        <v>1483000</v>
+        <v>1711000</v>
       </c>
       <c r="G10" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="H10" s="3">
         <v>1490000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1388000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1499000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1510000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1445000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1088000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1056000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>986000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>912000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1406000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1351000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1137000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1649000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1401000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1579000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1706000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,67 +1143,70 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E14" s="3">
         <v>256000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>124000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>291000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>198000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>282000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1967000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>176000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5077000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2621000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3956000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>127000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9663000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2125000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>53000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E15" s="3">
         <v>801000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>851000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>888000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>894000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>845000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>874000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>855000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>801000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>840000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>796000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>797000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>779000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>759000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>746000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>752000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>720000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>710000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>712000</v>
       </c>
       <c r="V15" s="3">
         <v>712000</v>
       </c>
       <c r="W15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="X15" s="3">
         <v>665000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4605000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5161000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4592000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4412000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4350000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4621000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5875000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3827000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9176000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6805000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7639000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3949000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13618000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3685000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5699000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3457000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3683000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3631000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3515000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3401000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3672000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>641000</v>
+      </c>
+      <c r="E18" s="3">
         <v>304000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>623000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>304000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>398000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>261000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>479000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>62000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>696000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>599000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>417000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>886000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>735000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>867000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1041000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>132000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>143000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>129000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>190000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>107000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>112000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>113000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>71000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>80000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>88000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>93000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>147000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>118000</v>
       </c>
       <c r="Q20" s="3">
         <v>118000</v>
       </c>
       <c r="R20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="S20" s="3">
         <v>117000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>47000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>39000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>23000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1237000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1617000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1321000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1482000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1213000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-356000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1447000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>952000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1573000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-601000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1468000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1171000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1643000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1481000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1618000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1729000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E22" s="3">
         <v>399000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>398000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>408000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>416000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>391000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>199000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>254000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>719000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>103000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>251000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>232000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>226000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>220000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>225000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>220000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>225000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>218000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>208000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E23" s="3">
         <v>37000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>368000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>172000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>338000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>582000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>496000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>226000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>713000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>544000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>688000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>856000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1125000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-98000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-109000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>539000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-729000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-84000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-593000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>160000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>134000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>109000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>160000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>401000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>123000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>204000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>86000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>374000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>567000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-980000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>445000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>265000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>553000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>410000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>579000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>696000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>397000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>120000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>371000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>133000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>564000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-984000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>442000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>261000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>550000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>406000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>576000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>692000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,11 +2158,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>13000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-132000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-143000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-129000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-190000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-107000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-112000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-113000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-71000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-80000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-88000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-93000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-118000</v>
       </c>
       <c r="Q32" s="3">
         <v>-118000</v>
       </c>
       <c r="R32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-117000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-47000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-39000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-23000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>397000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>120000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>371000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>133000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>564000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-984000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>442000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>550000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>406000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>576000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>692000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>397000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>120000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>371000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>133000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>564000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-984000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>442000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>550000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>406000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>576000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>692000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E41" s="3">
         <v>420000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>307000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>229000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>484000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>464000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>968000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1960000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1570000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2970000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3459000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2964000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1668000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>430000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>517000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>144000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>449000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>191000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>178000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>164000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>177000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,285 +2886,300 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4129000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3839000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3232000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2992000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3055000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2850000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4037000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3932000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3904000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4039000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3888000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4014000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3857000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2199000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2196000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1874000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2104000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2385000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2061000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2156000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2213000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E44" s="3">
         <v>569000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>565000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>550000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>628000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>646000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>653000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>644000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>647000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>635000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>608000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>536000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>554000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>505000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>487000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>453000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>481000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>498000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>501000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>465000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>463000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6061000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6699000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6185000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5296000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5435000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5838000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19355000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4022000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4044000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3933000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3622000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3179000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3116000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3215000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3167000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3384000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3247000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3309000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3331000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3195000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3311000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11077000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11527000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10289000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9067000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9602000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9798000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25013000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10558000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>11577000</v>
       </c>
       <c r="M46" s="3">
         <v>11577000</v>
       </c>
       <c r="N46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="O46" s="3">
         <v>10693000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9195000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6349000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6367000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5855000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6281000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6383000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6071000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5980000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6164000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68000</v>
+        <v>9000</v>
       </c>
       <c r="E47" s="3">
         <v>68000</v>
@@ -3084,7 +3188,7 @@
         <v>68000</v>
       </c>
       <c r="G47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="H47" s="3">
         <v>67000</v>
@@ -3105,28 +3209,28 @@
         <v>67000</v>
       </c>
       <c r="N47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="O47" s="3">
         <v>69000</v>
       </c>
       <c r="P47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>67000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66000</v>
-      </c>
-      <c r="R47" s="3">
-        <v>65000</v>
       </c>
       <c r="S47" s="3">
         <v>65000</v>
       </c>
       <c r="T47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="U47" s="3">
         <v>52000</v>
-      </c>
-      <c r="U47" s="3">
-        <v>70000</v>
       </c>
       <c r="V47" s="3">
         <v>70000</v>
@@ -3137,76 +3241,82 @@
       <c r="X47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72179000</v>
+      </c>
+      <c r="E48" s="3">
         <v>71696000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70737000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69799000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68719000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67334000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66174000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65391000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64577000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64713000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63831000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62840000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59347000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56965000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55808000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>54655000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53868000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52523000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>51636000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>51080000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50657000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20062000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20270000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19400000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19624000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19468000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18388000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17975000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10672000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10387000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9356000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8912000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8685000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8384000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8004000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7648000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7579000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7798000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12568000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12278000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12034000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11707000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103327000</v>
+      </c>
+      <c r="E54" s="3">
         <v>103561000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100494000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98558000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97856000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95587000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109229000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>86688000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85196000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85713000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84387000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82287000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76995000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71385000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>69889000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68154000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68012000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71526000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70055000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>69164000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68598000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,106 +3794,110 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2855000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2697000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2250000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2141000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2402000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2756000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3399000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1851000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1954000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1844000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1679000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>867000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1975000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1699000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1477000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1231000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1646000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1419000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1389000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1117000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1495000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6665000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6988000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6633000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2970000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3575000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2432000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2750000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3772,309 +3905,324 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>21994000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>943000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1643000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1361000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1376000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1569000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1880000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1463000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2216000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7907000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8099000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6610000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7106000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7604000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8133000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39646000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4402000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4177000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4628000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4032000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3941000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17726000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6847000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6666000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4328000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4107000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4485000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3679000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3958000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3853000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17427000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17784000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15493000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12217000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13581000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13321000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45795000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8253000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7631000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6472000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5711000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4808000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41695000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9489000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9786000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6920000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7129000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7473000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6948000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6538000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7564000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38225000</v>
+      </c>
+      <c r="E61" s="3">
         <v>35959000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35955000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37801000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37288000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36311000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34920000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23298000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23116000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23963000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23961000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22811000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>18407000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17612000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17407000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17753000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16619000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16616000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16813000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16220000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26452000</v>
+      </c>
+      <c r="E62" s="3">
         <v>29091000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27247000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27161000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25734000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24891000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24713000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>49378000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49061000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46287000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44121000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41539000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22397000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23793000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23430000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23844000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23658000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>28148000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27600000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27208000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26622000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82356000</v>
+      </c>
+      <c r="E66" s="3">
         <v>83086000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78947000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77431000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76855000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74775000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105680000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>81181000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80060000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76974000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74045000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69410000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64344000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51941000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51080000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48423000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48792000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52492000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>51416000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50811000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50658000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9284000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-250000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6623000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6057000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7043000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6596000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6482000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6205000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6070000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5751000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20971000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20475000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21547000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21001000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20812000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3549000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5136000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8739000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10342000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12877000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12651000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19444000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18809000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19731000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19220000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19034000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18639000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18353000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17940000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>397000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>120000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>371000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>133000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>564000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-984000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>442000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>550000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>406000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>576000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>692000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E83" s="3">
         <v>801000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>851000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>888000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>894000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>845000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>874000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>855000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>801000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>840000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>796000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>797000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>779000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>759000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>746000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>752000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>720000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>710000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>712000</v>
       </c>
       <c r="V83" s="3">
         <v>712000</v>
       </c>
       <c r="W83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="X83" s="3">
         <v>665000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E89" s="3">
         <v>823000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1198000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>89000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1686000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1605000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>749000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1310000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>513000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2244000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>516000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1241000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1512000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1240000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1981000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1182000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1574000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1126000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2221000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>2547000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2227000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6069,25 +6302,28 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-267000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-266000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-243000</v>
       </c>
       <c r="W96" s="3">
         <v>-243000</v>
       </c>
       <c r="X96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>56000</v>
+        <v>1894000</v>
       </c>
       <c r="E100" s="3">
+        <v>399000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1801000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>229000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2083000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9891000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13514000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>440000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1168000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2669000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>152000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>552000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-342000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>718000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-507000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>86000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-352000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>388000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-231000</v>
+        <v>-124000</v>
       </c>
       <c r="E102" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F102" s="3">
         <v>61000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-369000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13414000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>390000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-489000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>494000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1297000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1238000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>373000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-305000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>258000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>106000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,332 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5798000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5246000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5465000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5215000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4716000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4748000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4882000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4533000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4306000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4743000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4432000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3943000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4011000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4088000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4381000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4234000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4056000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4100000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4517000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4250000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4268000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4713000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4130000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3753000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4013000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3504000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3157000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3258000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3494000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3034000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2796000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3298000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3344000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2887000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3025000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3176000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2936000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2828000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2705000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2963000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2868000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2849000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2689000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3007000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1668000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1493000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1452000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1711000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1559000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1490000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1388000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1499000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1510000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1445000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1088000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1056000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>986000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>912000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1445000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1406000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1351000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1137000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1649000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1401000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1579000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1706000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,70 +1162,73 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E14" s="3">
         <v>115000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>256000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>124000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>291000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>198000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>282000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1967000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>176000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5077000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2621000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3956000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>127000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9663000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2125000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>53000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1217,79 +1236,85 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>972000</v>
+      </c>
+      <c r="E15" s="3">
         <v>863000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>801000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>851000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>888000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>894000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>845000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>874000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>855000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>801000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>840000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>796000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>797000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>779000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>759000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>746000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>752000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>720000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>710000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>712000</v>
       </c>
       <c r="W15" s="3">
         <v>712000</v>
       </c>
       <c r="X15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>665000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5262000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4605000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5161000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4592000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4412000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4350000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4621000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5875000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3827000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9176000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6805000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7639000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3949000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13618000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3685000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5699000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3457000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3683000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3631000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3515000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3401000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3672000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E18" s="3">
         <v>641000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>304000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>623000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>304000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>398000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>261000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>479000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>62000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>696000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>599000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>417000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>886000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>735000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>867000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1041000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E20" s="3">
         <v>73000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>132000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>143000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>129000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>190000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>107000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>112000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>113000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>71000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>80000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>88000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>93000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>147000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>118000</v>
       </c>
       <c r="R20" s="3">
         <v>118000</v>
       </c>
       <c r="S20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="T20" s="3">
         <v>117000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>47000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>39000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>23000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1577000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1237000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1617000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1321000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1482000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1213000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-356000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1447000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>952000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1573000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-601000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1468000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1171000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1643000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1481000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1618000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1729000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E22" s="3">
         <v>396000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>399000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>398000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>408000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>416000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>391000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>199000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>254000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>719000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>103000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>251000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>232000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>226000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>220000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>225000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>220000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>225000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>218000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>208000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E23" s="3">
         <v>318000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>368000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>172000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>338000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>582000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>496000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>226000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>713000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>544000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>688000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>856000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-158000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1125000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-98000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-109000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>539000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-729000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-84000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-593000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-39000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>160000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>134000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>109000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>160000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E26" s="3">
         <v>476000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>401000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>123000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>204000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>86000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>374000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>567000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-980000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>445000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>265000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>553000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>410000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>579000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>696000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E27" s="3">
         <v>472000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>397000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>120000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>371000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>133000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>564000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-984000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>442000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>261000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>550000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>406000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>576000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>692000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,31 +2177,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2161,11 +2221,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2173,11 +2233,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-73000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-132000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-143000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-129000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-190000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-107000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-112000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-113000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-71000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-80000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-88000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-93000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-118000</v>
       </c>
       <c r="R32" s="3">
         <v>-118000</v>
       </c>
       <c r="S32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-117000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-47000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-39000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E33" s="3">
         <v>472000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>397000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>371000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>133000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>564000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-984000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>442000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>114000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>550000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>406000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>576000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>692000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E35" s="3">
         <v>472000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>397000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>371000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>133000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>564000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-984000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>442000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>114000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>550000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>406000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>576000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>692000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E41" s="3">
         <v>291000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>420000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>307000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>229000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>484000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>464000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>968000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1960000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1570000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2970000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3459000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2964000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>430000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>517000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>144000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>449000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>191000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>178000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>164000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>177000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +2978,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3775000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4129000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3839000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3232000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2992000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3055000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2850000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4037000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3932000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3904000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4039000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3888000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4014000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3857000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2199000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2196000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1874000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2104000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2385000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2061000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2156000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2213000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E44" s="3">
         <v>596000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>569000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>565000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>550000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>628000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>646000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>653000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>644000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>647000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>635000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>608000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>536000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>554000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>505000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>487000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>453000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>481000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>498000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>501000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>465000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>463000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5736000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6061000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6699000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6185000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5296000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5435000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5838000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19355000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4022000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4044000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3933000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3622000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3179000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3116000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3215000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3167000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3384000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3247000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3309000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3331000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3195000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3311000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10376000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11077000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11527000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10289000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9067000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9602000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9798000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25013000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10558000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>11577000</v>
       </c>
       <c r="N46" s="3">
         <v>11577000</v>
       </c>
       <c r="O46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="P46" s="3">
         <v>10693000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9195000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6349000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6367000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5855000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6281000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6383000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6071000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5980000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6164000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,7 +3286,7 @@
         <v>9000</v>
       </c>
       <c r="E47" s="3">
-        <v>68000</v>
+        <v>9000</v>
       </c>
       <c r="F47" s="3">
         <v>68000</v>
@@ -3191,7 +3295,7 @@
         <v>68000</v>
       </c>
       <c r="H47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="I47" s="3">
         <v>67000</v>
@@ -3212,28 +3316,28 @@
         <v>67000</v>
       </c>
       <c r="O47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="P47" s="3">
         <v>69000</v>
       </c>
       <c r="Q47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="R47" s="3">
         <v>67000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>66000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>65000</v>
       </c>
       <c r="T47" s="3">
         <v>65000</v>
       </c>
       <c r="U47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="V47" s="3">
         <v>52000</v>
-      </c>
-      <c r="V47" s="3">
-        <v>70000</v>
       </c>
       <c r="W47" s="3">
         <v>70000</v>
@@ -3244,79 +3348,85 @@
       <c r="Y47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73627000</v>
+      </c>
+      <c r="E48" s="3">
         <v>72179000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71696000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70737000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69799000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68719000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67334000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66174000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65391000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64577000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64713000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63831000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62840000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59347000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56965000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>55808000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>54655000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53868000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>52523000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>51636000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>51080000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50657000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19919000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20062000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20270000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19400000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19624000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19468000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18388000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17975000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10672000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10387000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9356000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8912000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8685000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8384000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8004000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7648000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7579000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7798000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12568000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12278000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12034000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11707000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103931000</v>
+      </c>
+      <c r="E54" s="3">
         <v>103327000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103561000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100494000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98558000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97856000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95587000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109229000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86688000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85196000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85713000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84387000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82287000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76995000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71385000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>69889000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68154000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68012000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71526000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70055000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>69164000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68598000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,112 +3924,116 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2855000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2697000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2250000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2141000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2402000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2756000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3399000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1851000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1954000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1844000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1679000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>867000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1699000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1477000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1231000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1646000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1419000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1389000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1117000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1495000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6407000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6665000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6988000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6633000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2970000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3575000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2432000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2750000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3908,321 +4041,336 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>21994000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>943000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1643000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1361000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1376000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1569000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1880000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1463000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2216000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7764000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7907000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8099000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6610000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7106000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7604000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8133000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39646000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4402000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4177000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4628000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4032000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3941000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17726000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6847000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6666000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4328000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4107000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4485000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3679000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3958000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3853000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16560000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17427000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17784000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15493000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12217000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13581000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13321000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45795000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8253000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7631000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6472000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5711000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4808000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41695000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9489000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9786000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6920000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7129000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7473000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6948000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6538000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7564000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39123000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38225000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35959000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35955000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37801000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37288000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36311000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34920000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23298000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23116000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23963000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23961000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22811000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>18407000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17612000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17407000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17753000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16619000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16616000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16813000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16220000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26604000</v>
+      </c>
+      <c r="E62" s="3">
         <v>26452000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29091000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27247000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27161000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25734000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24891000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24713000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49378000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49061000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46287000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44121000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41539000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22397000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23793000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23430000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23844000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23658000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>28148000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27600000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27208000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26622000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82539000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82356000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83086000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78947000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77431000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76855000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74775000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105680000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81181000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80060000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76974000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74045000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69410000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64344000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51941000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51080000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48423000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48792000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52492000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>51416000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50811000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>50658000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8867000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-114000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6623000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6057000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7043000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6596000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6482000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6205000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6070000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5751000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21392000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20971000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20475000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21547000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21127000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21001000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20812000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3549000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5136000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8739000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10342000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12877000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12651000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19444000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18809000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19731000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19220000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19034000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18639000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18353000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17940000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E81" s="3">
         <v>472000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>397000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>371000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>133000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>564000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-984000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>442000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>114000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>550000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>406000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>576000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>692000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>972000</v>
+      </c>
+      <c r="E83" s="3">
         <v>863000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>801000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>851000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>888000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>894000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>845000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>874000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>855000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>801000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>840000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>796000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>797000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>779000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>759000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>746000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>752000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>720000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>710000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>712000</v>
       </c>
       <c r="W83" s="3">
         <v>712000</v>
       </c>
       <c r="X83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>665000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1661000</v>
+      </c>
+      <c r="E89" s="3">
         <v>209000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>823000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1198000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>89000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1686000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1605000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>749000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1310000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>513000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2244000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>516000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1483000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1241000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1512000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1240000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1981000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1182000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1574000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1126000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2310000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>2547000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2330000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6305,25 +6538,28 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-267000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-266000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-243000</v>
       </c>
       <c r="X96" s="3">
         <v>-243000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1894000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>399000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1801000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>229000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2083000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9891000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13514000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>440000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1168000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2669000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>152000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>552000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-342000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>718000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-507000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>86000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-352000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>388000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-124000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>112000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-369000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-52000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13414000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>390000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-489000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>494000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1297000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1238000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-87000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>373000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-305000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>258000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>106000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5118000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5798000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5246000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5465000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5215000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4716000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4748000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4882000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4533000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4306000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4743000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4432000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3943000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4011000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4088000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4381000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4234000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4056000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4100000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4517000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4250000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4268000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4713000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3397000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4130000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3753000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4013000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3504000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3157000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3258000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3494000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3034000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2796000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3298000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3344000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2887000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3025000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3176000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2936000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2828000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2705000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2963000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2868000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2849000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2689000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3007000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1668000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1493000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1452000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1711000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1559000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1490000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1388000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1499000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1510000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1445000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1088000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1056000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>986000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>912000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1445000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1406000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1351000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1137000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1649000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1401000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1579000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1706000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,73 +1181,76 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E14" s="3">
         <v>117000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>115000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>256000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>124000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>291000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>198000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>282000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1967000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>176000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5077000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2621000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3956000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>127000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9663000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2125000</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>53000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1239,82 +1258,88 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>941000</v>
+      </c>
+      <c r="E15" s="3">
         <v>972000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>863000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>801000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>851000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>888000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>894000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>845000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>874000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>855000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>801000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>840000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>796000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>797000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>779000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>759000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>746000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>752000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>720000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>710000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>712000</v>
       </c>
       <c r="X15" s="3">
         <v>712000</v>
       </c>
       <c r="Y15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>665000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4673000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5262000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4605000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5161000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4592000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4412000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4350000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4621000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5875000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3827000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9176000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6805000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7639000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3949000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13618000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3685000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5699000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3457000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3683000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3631000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3515000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3401000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3672000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E18" s="3">
         <v>536000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>641000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>304000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>623000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>304000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>398000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>261000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>479000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>62000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>696000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>599000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>417000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>886000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>735000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>867000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1041000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>157000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>73000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>132000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>143000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>129000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>190000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>107000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>112000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>113000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>71000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>80000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>88000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>93000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>147000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>118000</v>
       </c>
       <c r="S20" s="3">
         <v>118000</v>
       </c>
       <c r="T20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="U20" s="3">
         <v>117000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>47000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>39000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>23000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1665000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1577000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1237000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1617000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1321000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1482000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1213000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-356000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1447000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>952000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1573000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-601000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1468000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1171000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1643000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1481000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1618000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1729000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E22" s="3">
         <v>419000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>396000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>399000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>398000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>408000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>416000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>391000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>199000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>254000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>719000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>103000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>251000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>232000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>226000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>220000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>225000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>220000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>225000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>218000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>208000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>274000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>318000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>368000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>172000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>338000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>582000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>496000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>226000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>713000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>544000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>688000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>856000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-204000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-158000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1125000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-33000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-98000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-109000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>539000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-729000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-593000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-39000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>160000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>134000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>109000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>160000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E26" s="3">
         <v>478000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>476000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>401000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>123000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>204000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>86000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>374000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>136000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>567000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-980000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>445000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>265000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>553000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>410000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>579000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>696000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E27" s="3">
         <v>475000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>472000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>397000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>120000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>371000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>133000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>564000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-984000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>442000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>261000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>550000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>406000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>576000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>692000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,8 +2266,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2224,11 +2284,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>13000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2236,11 +2296,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2254,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-157000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-73000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-132000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-143000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-129000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-190000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-107000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-112000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-113000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-71000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-80000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-88000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-118000</v>
       </c>
       <c r="S32" s="3">
         <v>-118000</v>
       </c>
       <c r="T32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-117000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-47000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-39000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E33" s="3">
         <v>475000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>472000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>397000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>120000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>371000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>133000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>564000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-984000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>442000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>114000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>550000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>406000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>576000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>692000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E35" s="3">
         <v>475000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>472000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>397000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>120000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>371000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>133000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>564000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-984000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>442000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>114000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>550000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>406000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>576000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>692000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E41" s="3">
         <v>247000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>291000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>420000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>307000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>229000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>484000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>464000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>968000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1960000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1570000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2970000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3459000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2964000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1668000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>430000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>517000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>144000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>449000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>191000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>178000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>164000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>177000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,304 +3070,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3775000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4129000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3839000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3232000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2992000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3055000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2850000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4037000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3932000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3904000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4039000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3888000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4014000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3857000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2199000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2196000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1874000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2104000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2385000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2061000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2156000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2213000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E44" s="3">
         <v>618000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>596000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>569000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>565000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>550000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>628000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>646000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>653000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>644000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>647000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>635000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>608000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>536000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>554000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>505000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>487000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>453000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>481000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>498000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>501000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>465000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>463000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6597000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5736000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6061000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6699000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6185000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5296000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5435000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5838000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19355000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4022000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4044000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3933000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3622000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3179000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3116000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3215000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3167000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3384000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3247000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3309000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3331000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3195000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3311000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11674000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10376000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11077000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11527000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10289000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9067000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9602000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9798000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25013000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10558000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>11577000</v>
       </c>
       <c r="O46" s="3">
         <v>11577000</v>
       </c>
       <c r="P46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10693000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9195000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6349000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6367000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5855000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6281000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6383000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6071000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5980000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6164000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3289,7 +3393,7 @@
         <v>9000</v>
       </c>
       <c r="F47" s="3">
-        <v>68000</v>
+        <v>9000</v>
       </c>
       <c r="G47" s="3">
         <v>68000</v>
@@ -3298,7 +3402,7 @@
         <v>68000</v>
       </c>
       <c r="I47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="J47" s="3">
         <v>67000</v>
@@ -3319,28 +3423,28 @@
         <v>67000</v>
       </c>
       <c r="P47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="Q47" s="3">
         <v>69000</v>
       </c>
       <c r="R47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="S47" s="3">
         <v>67000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>66000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>65000</v>
       </c>
       <c r="U47" s="3">
         <v>65000</v>
       </c>
       <c r="V47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="W47" s="3">
         <v>52000</v>
-      </c>
-      <c r="W47" s="3">
-        <v>70000</v>
       </c>
       <c r="X47" s="3">
         <v>70000</v>
@@ -3351,82 +3455,88 @@
       <c r="Z47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75732000</v>
+      </c>
+      <c r="E48" s="3">
         <v>73627000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72179000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>71696000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70737000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>69799000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68719000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67334000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66174000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65391000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64577000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64713000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>63831000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62840000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59347000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56965000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>55808000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>54655000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53868000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>52523000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>51636000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>51080000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>50657000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3499,8 +3609,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26126000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19919000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20062000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20270000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19400000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19624000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19468000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18388000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17975000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10672000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10387000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9356000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8912000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8685000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8384000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8004000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7648000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7579000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7798000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12568000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12278000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12034000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>11707000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113541000</v>
+      </c>
+      <c r="E54" s="3">
         <v>103931000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103327000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103561000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100494000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98558000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97856000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95587000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109229000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86688000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85196000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85713000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84387000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82287000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76995000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71385000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>69889000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68154000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68012000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71526000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>70055000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>69164000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68598000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,118 +4054,122 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3029000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2389000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2855000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2697000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2250000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2141000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2402000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2756000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3399000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1851000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1954000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1844000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1679000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>867000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1975000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1699000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1477000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1231000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1646000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1419000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1389000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1117000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1495000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4129000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6407000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6665000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6988000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6633000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2970000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3575000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2432000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2750000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4044,333 +4177,348 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>21994000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>943000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1643000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1361000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1376000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1569000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1880000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1463000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2216000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7849000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7764000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7907000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8099000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6610000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7106000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7604000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8133000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39646000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4402000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4177000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4628000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4032000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3941000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17726000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6847000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6666000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4328000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4107000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4485000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3679000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3958000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3853000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15007000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16560000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17427000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17784000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15493000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12217000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13581000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13321000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45795000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8253000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7631000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6472000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5711000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4808000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41695000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9489000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9786000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6920000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7129000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7473000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6948000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6538000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7564000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44174000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39123000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38225000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35959000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35955000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37801000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37288000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36311000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34920000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23298000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23116000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23963000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23961000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22811000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>18407000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17612000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17407000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17753000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16619000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16616000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16813000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16220000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32341000</v>
+      </c>
+      <c r="E62" s="3">
         <v>26604000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26452000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29091000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27247000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27161000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25734000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24891000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24713000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49378000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49061000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46287000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44121000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41539000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22397000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23793000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23430000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23844000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23658000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>28148000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27600000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>27208000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26622000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91774000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82539000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82356000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83086000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78947000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77431000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76855000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74775000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105680000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81181000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80060000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76974000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74045000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69410000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64344000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51941000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51080000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48423000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48792000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52492000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>51416000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>50811000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>50658000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8511000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8867000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-114000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-250000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6623000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6057000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7043000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6596000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6482000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6205000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6070000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5751000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21767000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21392000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20971000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20475000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21547000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21127000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21001000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20812000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3549000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5136000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8739000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10342000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12877000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12651000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19444000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18809000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19731000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19220000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19034000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18639000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18353000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17940000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E81" s="3">
         <v>475000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>472000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>397000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>120000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>371000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>133000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>564000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-984000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>442000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>114000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>550000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>406000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>576000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>692000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>941000</v>
+      </c>
+      <c r="E83" s="3">
         <v>972000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>863000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>801000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>851000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>888000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>894000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>845000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>874000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>855000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>801000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>840000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>796000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>797000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>779000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>759000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>746000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>752000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>720000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>710000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>712000</v>
       </c>
       <c r="X83" s="3">
         <v>712000</v>
       </c>
       <c r="Y83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>665000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1661000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>209000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>823000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1198000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>89000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1686000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1605000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>749000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1310000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>513000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2244000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>516000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1483000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1241000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1512000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1240000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1981000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1182000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1574000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1126000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2229000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2310000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>2547000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2650000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6541,25 +6774,28 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-267000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-266000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-243000</v>
       </c>
       <c r="Y96" s="3">
         <v>-243000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7022,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2711000</v>
+      </c>
+      <c r="E100" s="3">
         <v>638000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1894000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>399000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1801000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>229000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2083000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9891000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13514000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>440000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>17000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1168000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2669000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>152000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>552000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-342000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>718000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-507000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>86000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-352000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>388000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,78 +7176,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-124000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>112000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-369000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-52000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13414000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>390000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-489000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>494000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1297000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1238000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-87000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>373000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-305000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>258000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>106000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,356 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5394000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5118000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5798000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5246000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5465000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5215000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4716000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4748000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4882000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4533000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4306000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4743000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4432000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3943000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4011000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4088000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4381000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4234000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4056000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4100000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4517000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4250000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4268000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4713000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3489000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3397000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4130000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3753000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4013000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3504000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3157000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3258000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3494000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3034000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2796000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3298000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3344000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2887000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3025000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3176000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2936000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2828000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2705000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2963000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2868000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2849000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2689000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3007000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1905000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1721000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1668000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1493000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1452000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1711000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1559000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1490000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1388000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1499000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1510000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1445000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1088000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>986000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>912000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1445000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1406000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1351000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1137000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1649000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1401000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1579000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1706000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1042,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,76 +1200,79 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E14" s="3">
         <v>262000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>117000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>115000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>256000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>124000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>291000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>198000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>282000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1967000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>176000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5077000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2621000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3956000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>127000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9663000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2125000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>53000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1261,85 +1280,91 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E15" s="3">
         <v>941000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>972000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>863000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>801000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>851000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>888000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>894000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>845000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>874000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>855000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>801000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>840000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>796000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>797000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>779000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>759000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>746000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>752000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>720000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>710000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>712000</v>
       </c>
       <c r="Y15" s="3">
         <v>712000</v>
       </c>
       <c r="Z15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>665000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4673000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5262000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4605000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5161000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4592000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4412000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4350000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4621000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5875000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3827000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9176000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6805000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7639000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3949000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13618000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3685000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5699000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3457000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3683000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3631000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3515000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3401000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3672000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E18" s="3">
         <v>445000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>536000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>641000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>304000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>623000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>304000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>398000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>261000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>479000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>62000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>696000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>599000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>417000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>886000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>735000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>867000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1041000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>157000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>73000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>132000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>143000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>129000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>190000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>107000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>112000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>113000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>71000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>80000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>88000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>93000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>147000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>118000</v>
       </c>
       <c r="T20" s="3">
         <v>118000</v>
       </c>
       <c r="U20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="V20" s="3">
         <v>117000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>47000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>39000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>23000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1384000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1665000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1577000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1237000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1617000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1321000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1482000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1213000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-356000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1447000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>952000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1573000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-601000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1468000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1171000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1643000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1481000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1618000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1729000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E22" s="3">
         <v>411000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>419000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>396000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>399000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>398000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>408000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>416000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>391000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>199000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>254000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>719000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>103000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>251000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>232000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>226000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>220000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>225000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>220000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>225000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>218000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>208000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E23" s="3">
         <v>32000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>274000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>318000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>368000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>172000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>338000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>582000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>496000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>226000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>713000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>544000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>688000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>856000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-328000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-204000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-158000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1125000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-33000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-98000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-109000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>539000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-729000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-84000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-593000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-39000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>160000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>134000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>109000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>160000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E26" s="3">
         <v>360000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>478000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>476000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>401000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>204000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>86000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>374000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>136000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>567000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-980000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>445000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>265000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>553000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>410000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>579000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>696000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E27" s="3">
         <v>356000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>475000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>472000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>397000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>120000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>371000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>133000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>564000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-984000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>442000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>261000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>550000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>406000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>576000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>692000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2269,8 +2329,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2287,11 +2347,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>13000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2299,11 +2359,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2317,8 +2377,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-157000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-73000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-132000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-143000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-129000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-190000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-107000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-112000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-113000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-71000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-80000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-93000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-118000</v>
       </c>
       <c r="T32" s="3">
         <v>-118000</v>
       </c>
       <c r="U32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-117000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-47000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-39000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-23000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E33" s="3">
         <v>356000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>475000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>472000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>397000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>120000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>371000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>133000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>564000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-984000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>442000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>550000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>406000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>576000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>692000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E35" s="3">
         <v>356000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>475000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>472000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>397000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>120000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>371000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>133000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>564000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-984000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>442000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>550000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>406000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>576000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>692000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,85 +3004,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E41" s="3">
         <v>239000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>247000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>291000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>420000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>307000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>229000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>484000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>464000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>968000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1960000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1570000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2970000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3459000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2964000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1668000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>430000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>517000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>144000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>449000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>191000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>178000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>164000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>177000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,316 +3162,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4987000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4149000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3775000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4129000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3839000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3232000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2992000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3055000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2850000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4037000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3932000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3904000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4039000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3888000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4014000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3857000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2199000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2196000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1874000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2104000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2385000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2061000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2156000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2213000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>748000</v>
+      </c>
+      <c r="E44" s="3">
         <v>689000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>618000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>596000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>569000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>565000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>550000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>628000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>646000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>653000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>644000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>647000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>635000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>608000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>536000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>554000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>505000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>487000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>453000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>481000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>498000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>501000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>465000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>463000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6213000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6597000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5736000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6061000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6699000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6185000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5296000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5435000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5838000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19355000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4022000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4044000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3933000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3622000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3179000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3116000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3215000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3167000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3384000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3247000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3309000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3331000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3195000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3311000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12210000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11674000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10376000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11077000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11527000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10289000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9067000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9602000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9798000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25013000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10558000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>11577000</v>
       </c>
       <c r="P46" s="3">
         <v>11577000</v>
       </c>
       <c r="Q46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="R46" s="3">
         <v>10693000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9195000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6349000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6367000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5855000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6281000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6383000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6071000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5980000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6164000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3396,7 +3500,7 @@
         <v>9000</v>
       </c>
       <c r="G47" s="3">
-        <v>68000</v>
+        <v>9000</v>
       </c>
       <c r="H47" s="3">
         <v>68000</v>
@@ -3405,7 +3509,7 @@
         <v>68000</v>
       </c>
       <c r="J47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="K47" s="3">
         <v>67000</v>
@@ -3426,28 +3530,28 @@
         <v>67000</v>
       </c>
       <c r="Q47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="R47" s="3">
         <v>69000</v>
       </c>
       <c r="S47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="T47" s="3">
         <v>67000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>66000</v>
-      </c>
-      <c r="U47" s="3">
-        <v>65000</v>
       </c>
       <c r="V47" s="3">
         <v>65000</v>
       </c>
       <c r="W47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="X47" s="3">
         <v>52000</v>
-      </c>
-      <c r="X47" s="3">
-        <v>70000</v>
       </c>
       <c r="Y47" s="3">
         <v>70000</v>
@@ -3458,85 +3562,91 @@
       <c r="AA47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>77272000</v>
+      </c>
+      <c r="E48" s="3">
         <v>75732000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73627000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72179000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>71696000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70737000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>69799000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68719000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67334000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66174000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65391000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64577000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>64713000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>63831000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62840000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59347000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56965000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>55808000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>54655000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>53868000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>52523000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>51636000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>51080000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>50657000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3612,8 +3722,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27521000</v>
+      </c>
+      <c r="E52" s="3">
         <v>26126000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19919000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20062000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20270000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19400000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19624000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19468000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18388000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17975000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10672000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10387000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9356000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8912000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8685000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8384000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8004000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7648000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7579000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7798000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12568000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12278000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12034000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>11707000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117012000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113541000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103931000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103327000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103561000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100494000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98558000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97856000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95587000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109229000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>86688000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85196000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85713000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84387000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82287000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76995000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71385000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>69889000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68154000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68012000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71526000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>70055000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>69164000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68598000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,124 +4184,128 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3029000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2389000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2855000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2697000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2250000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2141000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2402000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2756000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3399000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1851000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1954000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1844000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1679000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>867000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1975000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1699000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1477000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1231000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1646000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1419000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1389000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1117000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1495000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2825000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4129000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6407000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6665000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6988000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6633000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2970000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3575000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2432000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2750000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -4180,345 +4313,360 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>21994000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>943000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1643000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1361000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1376000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1569000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1880000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1463000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8238000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7849000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7764000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7907000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8099000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6610000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7106000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7604000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8133000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39646000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4402000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4177000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4628000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4032000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3941000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17726000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6847000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6666000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4328000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4107000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4485000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3679000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3958000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3853000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14027000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15007000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16560000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17427000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17784000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15493000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12217000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13581000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13321000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45795000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8253000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7631000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6472000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5711000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4808000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41695000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9489000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9786000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6920000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7129000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7473000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6948000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6538000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7564000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47854000</v>
+      </c>
+      <c r="E61" s="3">
         <v>44174000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39123000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38225000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35959000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35955000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37801000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37288000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36311000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34920000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23298000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23116000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23963000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23961000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22811000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>18407000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17612000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17407000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17753000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16619000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16616000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16813000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16220000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32645000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32341000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26604000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26452000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29091000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27247000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27161000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25734000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24891000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24713000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49378000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49061000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46287000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44121000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41539000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22397000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23793000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23430000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23844000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23658000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>28148000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>27600000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>27208000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>26622000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94778000</v>
+      </c>
+      <c r="E66" s="3">
         <v>91774000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82539000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82356000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83086000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78947000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77431000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76855000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74775000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105680000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81181000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80060000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>76974000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74045000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69410000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64344000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51941000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51080000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48423000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48792000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52492000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>51416000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>50811000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>50658000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8055000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8511000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8867000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-114000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-250000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6623000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6057000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7043000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6596000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6482000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6205000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6070000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5751000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22234000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21767000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21392000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20971000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20475000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21547000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21127000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21001000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20812000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3549000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5136000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8739000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10342000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12877000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12651000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19444000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18809000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19731000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19220000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19034000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18639000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18353000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17940000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E81" s="3">
         <v>356000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>475000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>472000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>397000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>120000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>371000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>133000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>564000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-984000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>442000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>550000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>406000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>576000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>692000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E83" s="3">
         <v>941000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>972000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>863000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>801000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>851000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>888000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>894000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>845000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>874000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>855000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>801000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>840000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>796000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>797000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>779000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>759000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>746000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>752000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>720000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>710000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>712000</v>
       </c>
       <c r="Y83" s="3">
         <v>712000</v>
       </c>
       <c r="Z83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>665000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1661000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>209000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>823000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1198000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>89000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1686000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1605000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>749000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1310000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>513000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2244000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>516000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1483000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1241000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1512000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1240000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1981000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1182000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1574000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1126000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2872000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2229000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2310000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>2547000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3338000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2650000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6777,25 +7010,28 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-267000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-266000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-243000</v>
       </c>
       <c r="Z96" s="3">
         <v>-243000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,85 +7267,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2711000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>638000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1894000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>399000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1801000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>229000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2083000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9891000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13514000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>440000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1168000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2669000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>152000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>552000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-342000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>718000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-507000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>86000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-352000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>388000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7179,81 +7427,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E102" s="3">
         <v>39000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-124000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>112000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-369000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-52000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13414000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>390000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-489000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>494000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1297000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1238000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-87000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>373000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-305000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>258000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>13000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>14000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>106000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,368 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5370000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5394000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5118000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5798000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5246000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5465000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5215000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4716000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4748000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4882000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4533000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4306000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4743000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4432000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3943000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4011000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4088000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4381000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4234000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4056000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4100000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4517000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4250000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4268000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4713000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3489000</v>
+        <v>3503000</v>
       </c>
       <c r="E9" s="3">
+        <v>3412000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3397000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4130000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3753000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4013000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3504000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3157000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3258000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3494000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3034000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2796000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3298000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3344000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2887000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3025000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3176000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2936000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2828000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2705000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2963000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2868000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2849000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2689000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3007000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1905000</v>
+        <v>1867000</v>
       </c>
       <c r="E10" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1721000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1668000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1493000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1452000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1711000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1559000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1490000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1388000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1499000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1510000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1445000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1088000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1056000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>986000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>912000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1445000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1406000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1351000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1137000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1649000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1401000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1579000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1706000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,79 +1219,82 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>204000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>262000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>117000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>115000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>256000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>291000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>198000</v>
+      </c>
+      <c r="M14" s="3">
+        <v>282000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1967000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>176000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5077000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2621000</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3956000</v>
+      </c>
+      <c r="S14" s="3">
         <v>127000</v>
       </c>
-      <c r="E14" s="3">
-        <v>262000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>117000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>115000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>256000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>124000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>291000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>198000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>282000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1967000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>176000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>5077000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2621000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>3956000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>127000</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9663000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-10000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2125000</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>53000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1283,88 +1302,94 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>941000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1002000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>941000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>972000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>863000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>801000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>851000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>888000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>894000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>845000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>874000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>855000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>801000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>840000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>796000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>797000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>779000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>759000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>746000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>752000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>720000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>710000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>712000</v>
       </c>
       <c r="Z15" s="3">
         <v>712000</v>
       </c>
       <c r="AA15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>665000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5240000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4668000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4673000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5262000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4605000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5161000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4592000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4412000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4350000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4621000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5875000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3827000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9176000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6805000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7639000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3949000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13618000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3685000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5699000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3457000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3683000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3631000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3515000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3401000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3672000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E18" s="3">
         <v>726000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>445000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>536000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>641000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>304000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>623000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>304000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>398000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>261000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>479000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>62000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>696000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>599000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>417000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>886000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>735000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>867000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1041000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E20" s="3">
         <v>161000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>157000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>73000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>132000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>143000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>129000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>190000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>107000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>112000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>113000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>71000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>80000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>88000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>93000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>147000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>118000</v>
       </c>
       <c r="U20" s="3">
         <v>118000</v>
       </c>
       <c r="V20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="W20" s="3">
         <v>117000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>47000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>39000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>23000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1889000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1384000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1665000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1577000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1237000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1617000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1321000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1482000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1213000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-356000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1447000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>952000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1573000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-601000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1468000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1171000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1643000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1481000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1618000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1729000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E22" s="3">
         <v>525000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>411000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>419000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>396000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>399000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>398000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>408000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>416000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>391000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>199000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>254000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>719000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>103000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>251000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>232000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>226000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>220000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>225000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>220000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>225000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>218000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>208000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="E23" s="3">
         <v>362000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>274000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>318000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>368000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>172000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>338000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>582000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>496000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>226000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>713000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>544000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>688000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>856000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-709000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-97000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-328000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-204000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-158000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1125000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-98000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-109000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>539000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-729000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-84000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-593000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>51000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-39000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>160000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>134000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>109000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>160000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E26" s="3">
         <v>459000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>360000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>478000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>476000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>401000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>123000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>204000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>374000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>136000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>567000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-980000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>445000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>265000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>553000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>410000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>579000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>696000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E27" s="3">
         <v>456000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>356000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>475000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>472000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>397000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>120000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>371000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>133000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>564000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-984000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>442000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>261000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>550000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>406000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>576000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>692000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2357,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2332,8 +2392,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2350,11 +2410,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>13000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2362,11 +2422,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2380,8 +2440,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-161000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-157000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-73000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-132000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-143000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-129000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-190000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-107000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-112000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-113000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-71000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-88000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-93000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-118000</v>
       </c>
       <c r="U32" s="3">
         <v>-118000</v>
       </c>
       <c r="V32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-117000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-47000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-39000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-23000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E33" s="3">
         <v>456000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>356000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>475000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>472000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>397000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>120000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>371000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>133000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>564000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-984000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>442000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>550000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>406000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>576000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>692000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E35" s="3">
         <v>456000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>356000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>475000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>472000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>397000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>120000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>371000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>133000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>564000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-984000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>442000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>550000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>406000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>576000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>692000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>734000</v>
+      </c>
+      <c r="E41" s="3">
         <v>262000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>239000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>247000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>291000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>420000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>307000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>229000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>484000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>464000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>968000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1960000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1570000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2970000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3459000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2964000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1668000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>430000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>517000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>144000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>449000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>191000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>178000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>164000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>177000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3165,345 +3254,360 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4269000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4987000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4149000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3775000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4129000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3839000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3232000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2992000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3055000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2850000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4037000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3932000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3904000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4039000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3888000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4014000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3857000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2199000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2196000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1874000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2104000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2385000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2061000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2156000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2213000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E44" s="3">
         <v>748000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>689000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>618000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>596000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>569000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>565000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>550000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>628000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>646000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>653000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>644000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>647000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>635000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>608000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>536000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>554000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>505000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>487000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>453000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>481000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>498000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>501000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>465000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>463000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6970000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6213000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6597000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5736000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6061000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6699000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6185000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5296000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5435000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5838000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19355000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4022000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4044000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3933000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3622000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3179000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3116000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3215000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3167000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3384000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3247000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3309000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3331000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3195000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3311000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12815000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12210000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11674000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10376000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11077000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11527000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10289000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9067000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9602000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9798000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25013000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10558000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>11577000</v>
       </c>
       <c r="Q46" s="3">
         <v>11577000</v>
       </c>
       <c r="R46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="S46" s="3">
         <v>10693000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9195000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6349000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6367000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5855000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6281000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6383000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6071000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5980000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6164000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>113000</v>
+      </c>
+      <c r="H47" s="3">
         <v>9000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>68000</v>
       </c>
       <c r="I47" s="3">
         <v>68000</v>
@@ -3512,7 +3616,7 @@
         <v>68000</v>
       </c>
       <c r="K47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="L47" s="3">
         <v>67000</v>
@@ -3533,28 +3637,28 @@
         <v>67000</v>
       </c>
       <c r="R47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="S47" s="3">
         <v>69000</v>
       </c>
       <c r="T47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="U47" s="3">
         <v>67000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>66000</v>
-      </c>
-      <c r="V47" s="3">
-        <v>65000</v>
       </c>
       <c r="W47" s="3">
         <v>65000</v>
       </c>
       <c r="X47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="Y47" s="3">
         <v>52000</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>70000</v>
       </c>
       <c r="Z47" s="3">
         <v>70000</v>
@@ -3565,88 +3669,94 @@
       <c r="AB47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>77272000</v>
+        <v>77519000</v>
       </c>
       <c r="E48" s="3">
-        <v>75732000</v>
+        <v>76274000</v>
       </c>
       <c r="F48" s="3">
-        <v>73627000</v>
+        <v>74781000</v>
       </c>
       <c r="G48" s="3">
+        <v>72644000</v>
+      </c>
+      <c r="H48" s="3">
         <v>72179000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>71696000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70737000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>69799000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68719000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>67334000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66174000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65391000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>64577000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64713000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63831000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62840000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>59347000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>56965000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>55808000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>54655000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>53868000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>52523000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>51636000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>51080000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>50657000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3725,8 +3835,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27521000</v>
+        <v>28285000</v>
       </c>
       <c r="E52" s="3">
-        <v>26126000</v>
+        <v>28486000</v>
       </c>
       <c r="F52" s="3">
-        <v>19919000</v>
+        <v>27011000</v>
       </c>
       <c r="G52" s="3">
+        <v>20798000</v>
+      </c>
+      <c r="H52" s="3">
         <v>20062000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20270000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19400000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19624000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19468000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18388000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17975000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10672000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10387000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9356000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8912000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8685000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8384000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8004000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7648000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7579000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7798000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12568000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12278000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12034000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>11707000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118644000</v>
+      </c>
+      <c r="E54" s="3">
         <v>117012000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113541000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103931000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103327000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103561000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100494000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98558000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97856000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95587000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109229000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>86688000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85196000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85713000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84387000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82287000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76995000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71385000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>69889000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68154000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68012000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>71526000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>70055000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>69164000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>68598000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,130 +4314,134 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2888000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2964000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3029000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2389000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2855000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2697000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2250000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2141000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2402000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2756000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3399000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1851000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1954000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1844000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1679000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>867000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1975000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1699000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1477000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1231000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1646000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1419000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1389000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1117000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1495000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2825000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4129000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6407000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6665000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6988000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6633000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2970000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3575000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2432000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2750000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4316,357 +4449,372 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>21994000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>943000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1643000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1361000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1376000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1569000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1880000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1463000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8577000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8238000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7849000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7764000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7907000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8099000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6610000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7106000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7604000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8133000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39646000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4402000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4177000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4628000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4032000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3941000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17726000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6847000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6666000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4328000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4107000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4485000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3679000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3958000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3853000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15788000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14027000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15007000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16560000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17427000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17784000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15493000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12217000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13581000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13321000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45795000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8253000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7631000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6472000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5711000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4808000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41695000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9489000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9786000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6920000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7129000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7473000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6948000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6538000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7564000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47742000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47854000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44174000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39123000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38225000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35959000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35955000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37801000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37288000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36311000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34920000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23298000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23116000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23963000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23961000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22811000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>18407000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17612000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17407000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17753000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16619000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16616000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16813000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16220000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32039000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32645000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32341000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26604000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26452000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29091000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27247000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27161000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25734000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24891000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24713000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49378000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49061000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46287000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44121000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41539000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22397000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23793000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23430000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23844000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23658000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>28148000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>27600000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>27208000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>26622000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95821000</v>
+      </c>
+      <c r="E66" s="3">
         <v>94778000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91774000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82539000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82356000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83086000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78947000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77431000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76855000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74775000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105680000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81181000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>80060000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>76974000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74045000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69410000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64344000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51941000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>51080000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48423000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48792000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>52492000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>51416000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>50811000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>50658000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7542000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8055000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8511000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8867000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-114000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-250000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6623000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6057000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7043000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6596000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6482000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6205000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6070000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5751000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22823000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22234000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21767000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21392000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20971000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20475000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21547000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21127000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21001000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20812000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3549000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5136000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8739000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10342000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12877000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12651000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19444000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18809000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19731000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19220000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19034000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18639000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18353000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17940000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E81" s="3">
         <v>456000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>356000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>475000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>472000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>397000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>120000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>371000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>133000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>564000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-984000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>442000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>550000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>406000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>576000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>692000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>941000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1002000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>941000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>972000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>863000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>801000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>851000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>888000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>894000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>845000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>874000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>855000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>801000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>840000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>796000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>797000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>779000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>759000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>746000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>752000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>720000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>710000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>712000</v>
       </c>
       <c r="Z83" s="3">
         <v>712000</v>
       </c>
       <c r="AA83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>665000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1073000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1661000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>209000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>823000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1198000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>89000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1686000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1605000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>749000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1310000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>513000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2244000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>516000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1483000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1241000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1512000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1240000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1981000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1182000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1574000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1126000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2173000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2872000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2229000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2310000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>2547000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1896000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3338000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2650000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7013,25 +7246,28 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-267000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-266000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-243000</v>
       </c>
       <c r="AA96" s="3">
         <v>-243000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,88 +7512,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2357000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2711000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>638000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1894000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>399000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1801000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>229000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2083000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9891000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13514000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>440000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>17000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1168000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2669000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>152000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>552000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-342000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>718000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-507000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>86000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-352000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>388000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7430,84 +7678,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E102" s="3">
         <v>92000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-124000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>112000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-369000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-52000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13414000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>390000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-489000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>494000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1297000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1238000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-87000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>373000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-305000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>258000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>13000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>106000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,380 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6209000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5370000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5394000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5118000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5798000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5246000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5465000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5215000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4716000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4748000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4882000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4533000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4306000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4743000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4432000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3943000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4011000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4088000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4381000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4234000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4056000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4100000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4517000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4250000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4268000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4713000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3976000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3503000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3412000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3397000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4130000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3753000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4013000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3504000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3157000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3258000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3494000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3034000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2796000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3298000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3344000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2887000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3025000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3176000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2936000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2828000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2705000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2963000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2868000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2849000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2689000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3007000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1867000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1982000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1721000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1668000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1493000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1452000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1711000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1559000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1490000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1388000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1499000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1510000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1088000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1056000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>986000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>912000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1445000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1406000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1351000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1137000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1649000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1401000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1579000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1706000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,82 +1238,85 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E14" s="3">
         <v>211000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>204000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>262000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>117000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>115000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>256000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>124000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>291000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>198000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>282000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1967000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>176000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5077000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2621000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3956000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>127000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9663000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-10000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2125000</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>53000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1305,91 +1324,97 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E15" s="3">
         <v>941000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1002000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>941000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>972000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>863000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>801000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>851000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>888000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>894000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>845000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>874000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>855000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>801000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>840000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>796000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>797000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>779000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>759000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>746000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>752000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>720000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>710000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>712000</v>
       </c>
       <c r="AA15" s="3">
         <v>712000</v>
       </c>
       <c r="AB15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AC15" s="3">
         <v>665000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5580000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5240000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4668000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4673000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5262000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4605000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5161000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4592000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4412000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4350000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4621000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5875000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3827000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9176000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6805000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7639000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3949000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13618000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3685000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5699000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3457000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3683000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3631000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3515000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3401000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3672000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E18" s="3">
         <v>130000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>726000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>445000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>536000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>641000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>304000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>623000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>304000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>398000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>261000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>479000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>62000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>696000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>599000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>417000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>886000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>735000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>867000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1041000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E20" s="3">
         <v>240000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>161000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>157000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>73000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>132000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>143000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>129000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>190000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>107000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>112000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>113000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>71000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>80000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>88000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>93000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>147000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>118000</v>
       </c>
       <c r="V20" s="3">
         <v>118000</v>
       </c>
       <c r="W20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="X20" s="3">
         <v>117000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>47000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>39000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>23000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1311000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1889000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1384000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1665000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1577000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1237000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1617000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1321000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1482000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1213000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-356000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1447000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>952000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1573000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-601000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1468000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1171000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1643000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1481000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1618000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1729000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E22" s="3">
         <v>562000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>525000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>411000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>419000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>396000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>399000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>398000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>408000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>416000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>391000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>199000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>254000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>719000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>103000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>251000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>232000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>226000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>220000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>225000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>220000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>225000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>218000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>208000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-192000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>362000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>274000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>318000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>368000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>172000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>338000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>582000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>496000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>226000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>713000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>544000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>688000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>856000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-348000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-709000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-97000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-328000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-204000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-158000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1125000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-98000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-109000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>539000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-729000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-84000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-593000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>51000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-39000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>160000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>134000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>109000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>160000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E26" s="3">
         <v>517000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>459000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>360000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>478000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>476000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>401000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>123000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>204000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>86000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>374000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>136000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>567000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-980000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>445000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>265000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>553000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>410000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>579000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>696000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E27" s="3">
         <v>513000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>456000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>356000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>475000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>472000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>397000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>371000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>133000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>564000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-984000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>442000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>261000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>550000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>406000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>576000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>692000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2395,8 +2455,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2413,11 +2473,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>13000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2425,11 +2485,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2443,8 +2503,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-240000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-161000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-157000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-73000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-132000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-143000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-129000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-190000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-107000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-112000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-113000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-80000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-88000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-93000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-118000</v>
       </c>
       <c r="V32" s="3">
         <v>-118000</v>
       </c>
       <c r="W32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-117000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-47000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-39000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-23000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E33" s="3">
         <v>513000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>456000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>356000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>475000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>472000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>397000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>371000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>133000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>564000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-984000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>442000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>114000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>550000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>406000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>576000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>692000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E35" s="3">
         <v>513000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>456000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>356000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>475000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>472000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>397000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>371000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>133000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>564000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-984000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>442000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>114000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>550000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>406000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>576000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>692000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E41" s="3">
         <v>734000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>262000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>247000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>291000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>420000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>307000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>229000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>484000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>464000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>968000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1960000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1570000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2970000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3459000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2964000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1668000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>430000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>517000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>144000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>449000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>191000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>178000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>164000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>177000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,360 +3346,375 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3949000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4269000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4987000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4149000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3775000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4129000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3839000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3232000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2992000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3055000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2850000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4037000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3932000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3904000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4039000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3888000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4014000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3857000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2199000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2196000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1874000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2104000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2385000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2061000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2156000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2213000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E44" s="3">
         <v>842000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>748000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>689000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>618000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>596000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>569000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>565000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>550000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>628000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>646000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>653000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>644000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>647000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>635000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>608000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>536000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>554000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>505000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>487000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>453000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>481000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>498000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>501000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>465000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>463000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6485000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6970000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6213000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6597000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5736000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6061000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6699000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6185000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5296000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5435000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5838000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19355000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4022000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4044000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3933000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3622000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3179000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3116000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3215000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3167000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3384000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3247000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3309000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3331000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3195000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3311000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12297000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12815000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12210000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11674000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10376000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11077000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11527000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10289000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9067000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9602000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9798000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25013000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10558000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>11577000</v>
       </c>
       <c r="R46" s="3">
         <v>11577000</v>
       </c>
       <c r="S46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="T46" s="3">
         <v>10693000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9195000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6349000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6367000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5855000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6281000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6383000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6071000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5980000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6164000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E47" s="3">
         <v>25000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>42000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>75000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>113000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>68000</v>
       </c>
       <c r="J47" s="3">
         <v>68000</v>
@@ -3619,7 +3723,7 @@
         <v>68000</v>
       </c>
       <c r="L47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="M47" s="3">
         <v>67000</v>
@@ -3640,28 +3744,28 @@
         <v>67000</v>
       </c>
       <c r="S47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="T47" s="3">
         <v>69000</v>
       </c>
       <c r="U47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="V47" s="3">
         <v>67000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>66000</v>
-      </c>
-      <c r="W47" s="3">
-        <v>65000</v>
       </c>
       <c r="X47" s="3">
         <v>65000</v>
       </c>
       <c r="Y47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>52000</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>70000</v>
       </c>
       <c r="AA47" s="3">
         <v>70000</v>
@@ -3672,91 +3776,97 @@
       <c r="AC47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78768000</v>
+      </c>
+      <c r="E48" s="3">
         <v>77519000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>76274000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74781000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72644000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72179000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>71696000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>70737000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>69799000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68719000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67334000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66174000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>65391000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64577000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64713000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63831000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>62840000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>59347000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>56965000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>55808000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>54655000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>53868000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>52523000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>51636000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>51080000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>50657000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3838,8 +3948,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28531000</v>
+      </c>
+      <c r="E52" s="3">
         <v>28285000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28486000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27011000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20798000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20062000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20270000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19400000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19624000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19468000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18388000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17975000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10672000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10387000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9356000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8912000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8685000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8384000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8004000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7648000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7579000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7798000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12568000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12278000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>12034000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>11707000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>119612000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118644000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117012000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113541000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103931000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103327000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103561000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100494000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98558000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97856000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95587000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109229000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86688000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85196000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85713000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84387000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82287000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76995000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71385000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>69889000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>68154000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68012000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>71526000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>70055000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>69164000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>68598000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,136 +4444,140 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2324000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2888000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2964000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3029000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2389000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2855000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2697000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2250000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2141000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2402000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2756000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3399000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1851000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1954000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1844000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1679000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>867000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1975000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1699000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1477000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1231000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1646000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1419000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1389000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1117000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1495000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4323000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2825000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4129000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6407000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6665000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6988000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6633000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2970000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3575000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2432000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2750000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4452,369 +4585,384 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>21994000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>943000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1643000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1361000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1376000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1569000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1880000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1463000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7456000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8577000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8238000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7849000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7764000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7907000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8099000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6610000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7106000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7604000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8133000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39646000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4402000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4177000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4628000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4032000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3941000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17726000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6847000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6666000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4328000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4107000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4485000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3679000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3958000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3853000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14801000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15788000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14027000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15007000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16560000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17427000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17784000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15493000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12217000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13581000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13321000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45795000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8253000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7631000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6472000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5711000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4808000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>41695000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9489000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9786000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6920000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7129000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7473000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6948000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6538000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7564000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48508000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47742000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47854000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44174000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39123000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38225000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35959000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35955000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37801000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37288000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36311000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34920000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23298000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23116000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23963000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23961000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22811000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>18407000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17612000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17407000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17753000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16619000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16616000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16813000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16220000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32717000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32039000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32645000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32341000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26604000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26452000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29091000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27247000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27161000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25734000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24891000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24713000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49378000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49061000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46287000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44121000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41539000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22397000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23793000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23430000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23844000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23658000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>28148000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>27600000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>27208000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>26622000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96278000</v>
+      </c>
+      <c r="E66" s="3">
         <v>95821000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94778000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91774000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82539000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82356000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83086000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78947000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77431000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76855000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74775000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>105680000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81181000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>80060000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76974000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74045000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69410000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64344000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>51941000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>51080000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48423000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48792000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>52492000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>51416000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>50811000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>50658000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6973000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7542000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8055000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8511000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8867000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-114000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-250000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6623000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6057000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7043000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6596000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6482000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6205000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6070000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5751000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23334000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22823000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22234000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21767000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21392000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20971000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20475000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21547000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21127000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21001000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20812000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3549000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5136000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8739000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10342000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12877000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12651000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19444000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18809000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19731000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19220000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19034000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18639000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18353000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17940000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E81" s="3">
         <v>513000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>456000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>356000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>475000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>472000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>397000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>371000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>133000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>564000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-984000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>442000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>114000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>550000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>406000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>576000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>692000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E83" s="3">
         <v>941000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1002000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>941000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>972000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>863000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>801000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>851000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>888000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>894000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>845000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>874000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>855000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>801000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>840000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>796000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>797000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>779000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>759000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>746000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>752000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>720000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>710000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>712000</v>
       </c>
       <c r="AA83" s="3">
         <v>712000</v>
       </c>
       <c r="AB83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>665000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1185000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1009000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1073000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1661000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>209000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>823000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1198000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>89000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1686000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1605000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>749000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1310000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>513000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2244000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>516000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1483000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1241000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1512000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1240000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1981000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1182000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1574000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1126000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2288000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2173000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2872000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2229000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2310000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>2547000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2140000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1896000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3338000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2650000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,8 +7415,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7249,25 +7482,28 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-267000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-266000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-243000</v>
       </c>
       <c r="AB96" s="3">
         <v>-243000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,91 +7757,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1423000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1427000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2357000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2711000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>638000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1894000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>399000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1801000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>229000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2083000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9891000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13514000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>440000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>17000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1168000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2669000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>152000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>552000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-342000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>718000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-507000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>86000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-352000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>388000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7681,87 +7929,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E102" s="3">
         <v>540000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>92000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-124000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>112000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-369000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-52000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13414000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>390000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-489000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>494000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1297000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1238000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-87000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>373000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-305000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>258000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>13000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>106000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5290000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6209000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5370000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5394000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5118000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5798000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5246000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5465000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5215000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4716000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4748000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4882000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4533000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4306000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4743000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4432000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3943000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4011000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4088000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4381000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4234000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4056000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4100000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4517000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4250000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4268000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4713000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3228000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3976000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3503000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3412000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3397000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4130000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3753000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4013000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3504000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3157000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3258000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3494000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3034000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2796000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3298000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3344000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2887000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3025000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3176000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2936000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2828000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2705000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2963000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2868000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2849000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2689000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3007000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2233000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1867000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1982000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1721000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1668000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1493000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1452000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1711000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1559000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1490000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1388000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1499000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1510000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1445000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1088000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1056000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>986000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>912000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1445000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1406000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1351000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1137000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1649000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1401000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1579000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1706000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1168,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,85 +1257,88 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E14" s="3">
         <v>115000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>211000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>204000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>262000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>117000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>115000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>256000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>124000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>291000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>198000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>282000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1967000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>176000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5077000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2621000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3956000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>127000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9663000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-10000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2125000</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>53000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
@@ -1327,94 +1346,100 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1077000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>941000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1002000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>941000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>972000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>863000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>801000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>851000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>888000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>894000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>845000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>874000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>855000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>801000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>840000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>796000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>797000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>779000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>759000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>746000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>752000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>720000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>710000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>712000</v>
       </c>
       <c r="AB15" s="3">
         <v>712000</v>
       </c>
       <c r="AC15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AD15" s="3">
         <v>665000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4784000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5580000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5240000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4668000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4673000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5262000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4605000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5161000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4592000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4412000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4350000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4621000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5875000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3827000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9176000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6805000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7639000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3949000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13618000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3685000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5699000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3457000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3683000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3631000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3515000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3401000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3672000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E18" s="3">
         <v>629000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>130000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>726000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>445000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>536000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>641000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>304000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>623000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>304000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>398000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>261000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>479000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>62000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>696000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>599000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>417000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>886000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>735000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>867000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1041000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,438 +1678,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E20" s="3">
         <v>197000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>240000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>161000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>157000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>73000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>132000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>143000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>129000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>190000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>107000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>112000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>113000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>71000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>80000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>88000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>93000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>147000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>118000</v>
       </c>
       <c r="W20" s="3">
         <v>118000</v>
       </c>
       <c r="X20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>117000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>47000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>39000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>23000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1903000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1311000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1889000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1384000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1665000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1577000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1237000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1617000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1321000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1482000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1213000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-356000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1447000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>952000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1573000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-601000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1468000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1171000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1643000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1481000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1618000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1729000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E22" s="3">
         <v>602000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>562000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>525000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>411000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>419000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>396000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>399000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>398000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>408000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>416000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>391000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>199000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>254000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>719000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>103000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>251000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>232000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>226000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>220000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>225000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>220000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>225000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>218000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>208000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E23" s="3">
         <v>224000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-192000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>362000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>274000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>318000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>368000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>172000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>338000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>582000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>496000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>226000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>713000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>544000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>688000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>856000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-335000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-348000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-709000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-97000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-328000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-204000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-158000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1125000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-98000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-109000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>539000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-729000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-84000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-593000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>51000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-39000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>160000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>134000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>109000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>160000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E26" s="3">
         <v>572000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>517000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>459000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>360000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>478000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>476000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>401000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>123000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>204000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>86000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>374000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>136000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>567000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-980000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>445000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>265000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>553000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>410000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>579000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>696000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E27" s="3">
         <v>569000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>513000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>456000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>356000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>475000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>472000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>397000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>371000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>133000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>564000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-984000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>442000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>261000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>550000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>406000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>576000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>692000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2458,8 +2518,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2476,11 +2536,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>13000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2488,11 +2548,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-197000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-240000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-161000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-157000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-73000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-132000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-143000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-129000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-190000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-107000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-112000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-71000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-80000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-88000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-93000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-118000</v>
       </c>
       <c r="W32" s="3">
         <v>-118000</v>
       </c>
       <c r="X32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-47000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-39000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-23000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E33" s="3">
         <v>569000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>513000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>456000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>356000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>475000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>472000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>397000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>371000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>133000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>564000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-984000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>442000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>114000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>550000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>406000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>576000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>692000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E35" s="3">
         <v>569000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>513000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>456000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>356000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>475000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>472000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>397000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>371000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>133000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>564000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-984000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>442000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>114000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>550000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>406000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>576000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>692000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,94 +3262,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1028000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>734000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>262000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>239000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>247000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>291000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>420000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>307000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>229000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>484000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>464000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>968000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1960000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1570000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2970000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3459000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2964000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1668000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>430000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>517000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>144000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>449000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>191000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>178000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>164000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>177000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3349,375 +3438,390 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3121000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3949000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4269000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4987000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4149000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3775000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4129000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3839000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3232000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2992000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3055000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2850000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4037000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3932000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3904000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4039000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3888000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4014000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3857000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2199000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2196000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1874000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2104000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2385000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2061000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2156000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2213000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E44" s="3">
         <v>835000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>842000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>748000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>689000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>618000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>596000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>569000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>565000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>550000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>628000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>646000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>653000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>644000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>647000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>635000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>608000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>536000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>554000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>505000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>487000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>453000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>481000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>498000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>501000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>465000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>463000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7867000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6485000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6970000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6213000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6597000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5736000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6061000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6699000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6185000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5296000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5435000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5838000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19355000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4022000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4044000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3933000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3622000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3179000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3116000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3215000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3167000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3384000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3247000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3309000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3331000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3195000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3311000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12681000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12297000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12815000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12210000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11674000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10376000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11077000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11527000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10289000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9067000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9602000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9798000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25013000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10558000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>11577000</v>
       </c>
       <c r="S46" s="3">
         <v>11577000</v>
       </c>
       <c r="T46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="U46" s="3">
         <v>10693000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9195000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6349000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6367000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5855000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6281000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6383000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6071000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5980000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6164000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
         <v>16000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>42000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>75000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>113000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>68000</v>
       </c>
       <c r="K47" s="3">
         <v>68000</v>
@@ -3726,7 +3830,7 @@
         <v>68000</v>
       </c>
       <c r="M47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="N47" s="3">
         <v>67000</v>
@@ -3747,28 +3851,28 @@
         <v>67000</v>
       </c>
       <c r="T47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="U47" s="3">
         <v>69000</v>
       </c>
       <c r="V47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="W47" s="3">
         <v>67000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>66000</v>
-      </c>
-      <c r="X47" s="3">
-        <v>65000</v>
       </c>
       <c r="Y47" s="3">
         <v>65000</v>
       </c>
       <c r="Z47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="AA47" s="3">
         <v>52000</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>70000</v>
       </c>
       <c r="AB47" s="3">
         <v>70000</v>
@@ -3779,94 +3883,100 @@
       <c r="AD47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80191000</v>
+      </c>
+      <c r="E48" s="3">
         <v>78768000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>77519000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>76274000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74781000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72644000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72179000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>71696000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70737000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69799000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68719000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>67334000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66174000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>65391000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64577000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>64713000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>63831000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>62840000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>59347000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>56965000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>55808000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>54655000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>53868000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>52523000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>51636000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>51080000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>50657000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3951,8 +4061,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27821000</v>
+      </c>
+      <c r="E52" s="3">
         <v>28531000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28285000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28486000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27011000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20798000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20062000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20270000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19400000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19624000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19468000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18388000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17975000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10672000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10387000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9356000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8912000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8685000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8384000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8004000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7648000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7579000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7798000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12568000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>12278000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>12034000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>11707000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120705000</v>
+      </c>
+      <c r="E54" s="3">
         <v>119612000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118644000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117012000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113541000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103931000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103327000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103561000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100494000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98558000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97856000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95587000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109229000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86688000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85196000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85713000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84387000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82287000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76995000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71385000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>69889000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>68154000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68012000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>71526000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>70055000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>69164000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>68598000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,142 +4574,146 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2366000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2324000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2888000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2964000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3029000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2389000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2855000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2697000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2250000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2141000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2402000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2756000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3399000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1851000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1954000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1844000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1679000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>867000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1975000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1699000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1477000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1231000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1646000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1419000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1389000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1117000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1495000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3874000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5021000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4323000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2825000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4129000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6407000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6665000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6988000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6633000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2970000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3575000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2432000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2750000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -4588,381 +4721,396 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>21994000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>943000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1643000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1361000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1376000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1569000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1880000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1463000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6962000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7456000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8577000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8238000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7849000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7764000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7907000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8099000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6610000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7106000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7604000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8133000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39646000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4402000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4177000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4628000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4032000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3941000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17726000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6847000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6666000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4328000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4107000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4485000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3679000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3958000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3853000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13202000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14801000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15788000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14027000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15007000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16560000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17427000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17784000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15493000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12217000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13581000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13321000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45795000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8253000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7631000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6472000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5711000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4808000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>41695000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9489000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9786000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6920000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7129000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7473000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6948000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6538000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7564000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50230000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48508000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47742000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47854000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44174000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39123000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38225000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35959000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35955000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37801000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37288000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36311000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34920000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23298000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23116000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23963000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23961000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22811000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>18407000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17612000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17407000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17753000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16619000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16616000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16813000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16220000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33258000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32717000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32039000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32645000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32341000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26604000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26452000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29091000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27247000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27161000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25734000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24891000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24713000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49378000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49061000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46287000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44121000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>41539000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22397000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23793000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23430000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23844000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23658000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>28148000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>27600000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>27208000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>26622000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>96942000</v>
+      </c>
+      <c r="E66" s="3">
         <v>96278000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95821000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94778000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91774000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82539000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82356000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83086000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78947000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77431000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76855000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74775000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>105680000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81181000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>80060000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>76974000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74045000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69410000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64344000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>51941000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>51080000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48423000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48792000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>52492000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>51416000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>50811000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>50658000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6567000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6973000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7542000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8055000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8511000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8867000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-114000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-250000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6623000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6057000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7043000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6596000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6482000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6205000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6070000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5751000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23763000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23334000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22823000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22234000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21767000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21392000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20971000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20475000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21547000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21127000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21001000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20812000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3549000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5507000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5136000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8739000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10342000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12877000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12651000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19444000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18809000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19731000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19220000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19034000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18639000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18353000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>17940000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E81" s="3">
         <v>569000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>513000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>456000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>356000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>475000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>472000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>397000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>371000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>133000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>564000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-984000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>442000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>114000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>550000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>406000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>576000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>692000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1077000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>941000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1002000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>941000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>972000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>863000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>801000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>851000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>888000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>894000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>845000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>874000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>855000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>801000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>840000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>796000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>797000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>779000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>759000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>746000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>752000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>720000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>710000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>712000</v>
       </c>
       <c r="AB83" s="3">
         <v>712000</v>
       </c>
       <c r="AC83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>665000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1185000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1009000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1073000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1661000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>209000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>823000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1198000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>89000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1686000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1605000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>749000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1310000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>513000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2244000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>516000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1483000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1241000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1512000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1240000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1981000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1182000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1574000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1126000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2392000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2288000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2173000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2872000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2229000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2310000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>2547000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2280000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2140000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1896000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3338000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2650000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +7648,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7485,25 +7718,28 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-267000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-266000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-243000</v>
       </c>
       <c r="AC96" s="3">
         <v>-243000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,94 +8002,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1423000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1427000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2357000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2711000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>638000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1894000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>399000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1801000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>229000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2083000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9891000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13514000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>440000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>17000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1168000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2669000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>152000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>552000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>718000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-507000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>86000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-352000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>388000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7932,90 +8180,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-353000</v>
+      </c>
+      <c r="E102" s="3">
         <v>468000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>540000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>92000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-124000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>112000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-369000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-52000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13414000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>390000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-489000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>494000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1297000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1238000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-87000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>373000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-305000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>258000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>13000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>14000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>106000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-118000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>PCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5888000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5290000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6209000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5370000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5394000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5118000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5798000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5246000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5465000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5215000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4716000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4748000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4882000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4533000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4306000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4743000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4432000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3943000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4011000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4088000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4381000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4234000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4056000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4100000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4517000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4250000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4268000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4713000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4810000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3884000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3228000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3976000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3503000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3412000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3397000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4130000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3753000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4013000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3504000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3157000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3258000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3494000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3034000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2796000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3298000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3344000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2887000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3025000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3176000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2936000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2828000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2705000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2963000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2868000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2849000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2689000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3007000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3476000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2062000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2233000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1867000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1982000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1721000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1668000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1493000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1452000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1711000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1559000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1490000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1388000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1510000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1445000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1088000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1056000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>986000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>912000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1445000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1406000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1351000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1137000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1649000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1401000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1579000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1706000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1334000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,8 +1184,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,88 +1276,91 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E14" s="3">
         <v>116000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>115000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>211000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>204000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>262000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>117000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>115000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>256000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>124000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>291000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>198000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>282000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1967000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>176000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5077000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2621000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3956000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>127000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9663000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-10000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2125000</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>53000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-46000</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
@@ -1349,97 +1368,103 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>811000</v>
+      </c>
+      <c r="E15" s="3">
         <v>997000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1077000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>941000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1002000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>941000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>972000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>863000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>801000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>851000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>888000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>894000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>845000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>874000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>855000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>801000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>840000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>796000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>797000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>779000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>759000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>746000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>752000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>720000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>710000</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>712000</v>
       </c>
       <c r="AC15" s="3">
         <v>712000</v>
       </c>
       <c r="AD15" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AE15" s="3">
         <v>665000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5487000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4784000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5580000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5240000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4668000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4673000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5262000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4605000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5161000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4592000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4412000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4350000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4621000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5875000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3827000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9176000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6805000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7639000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3949000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13618000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3685000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5699000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3457000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3683000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3631000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3515000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3401000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3672000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4170000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E18" s="3">
         <v>506000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>629000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>130000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>726000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>445000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>536000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>641000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>304000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>623000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>304000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>398000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>261000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1342000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>479000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4433000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2373000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3696000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>62000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9530000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>696000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1465000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>599000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>417000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>886000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>735000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>867000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1041000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E20" s="3">
         <v>209000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>197000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>240000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>161000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>157000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>73000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>132000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>143000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>129000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>190000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>107000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>112000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>113000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>71000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>80000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>88000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>93000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>147000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>118000</v>
       </c>
       <c r="X20" s="3">
         <v>118000</v>
       </c>
       <c r="Y20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>117000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>47000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>34000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>39000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>23000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1428000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1712000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1903000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1311000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1889000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1384000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1665000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1577000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1237000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1617000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1321000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1482000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1213000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-356000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1447000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3561000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1453000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2812000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>952000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8604000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1573000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-601000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1468000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1171000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1643000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1481000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1618000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1729000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E22" s="3">
         <v>640000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>602000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>562000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>525000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>411000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>419000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>396000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>399000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>398000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>408000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>416000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>391000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>199000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>254000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>719000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>52000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>103000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>251000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>232000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>226000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>220000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>225000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>220000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>225000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>218000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>208000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E23" s="3">
         <v>75000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>224000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-192000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>362000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>274000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>318000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>368000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>172000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1429000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>338000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5081000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2345000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3668000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9634000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>582000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>496000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>226000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>713000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>544000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>688000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>856000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-335000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-348000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-709000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-97000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-328000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-204000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-158000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1125000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-98000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-109000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>539000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1468000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-729000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1119000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-84000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2752000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-593000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>51000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-39000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>160000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>134000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>109000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>160000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E26" s="3">
         <v>410000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>572000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>517000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>459000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>360000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>478000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>476000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1088000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>401000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>123000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>204000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>86000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1968000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>374000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3613000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1616000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2549000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>136000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6882000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>567000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-980000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>445000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>265000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>553000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>410000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>579000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>696000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E27" s="3">
         <v>406000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>569000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>513000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>456000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>356000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>475000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>472000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1091000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>397000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>120000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>83000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1972000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>371000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3617000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1619000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2553000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>133000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6886000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>564000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-984000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>442000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>261000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>550000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>406000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>576000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>692000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2521,8 +2581,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2539,11 +2599,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>13000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2551,11 +2611,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-147000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-209000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-197000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-240000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-161000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-157000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-73000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-132000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-143000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-129000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-190000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-107000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-113000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-71000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-80000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-88000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-93000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-147000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-118000</v>
       </c>
       <c r="X32" s="3">
         <v>-118000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-47000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-39000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-23000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E33" s="3">
         <v>406000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>569000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>513000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>456000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>356000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>475000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>472000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1091000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>397000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>120000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1972000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>371000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3617000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1619000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2553000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>133000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6873000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>564000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-984000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>442000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>114000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>550000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>406000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>576000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>692000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E35" s="3">
         <v>406000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>569000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>513000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>456000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>356000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>475000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>472000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1091000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>397000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>120000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1972000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>371000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3617000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1619000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2553000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>133000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6873000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>564000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-984000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>442000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>114000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>550000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>406000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>576000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>692000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E41" s="3">
         <v>805000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1028000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>734000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>262000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>239000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>247000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>291000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>420000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>307000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>229000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>484000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>464000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>968000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1960000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1570000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2970000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3459000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2964000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1668000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>430000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>517000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>144000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>449000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>191000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>178000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>164000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>177000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3441,97 +3530,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3121000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3949000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4269000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4987000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4149000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3775000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4129000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3839000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3232000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2992000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3055000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2850000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4037000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3932000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3904000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4039000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3888000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4014000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3857000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2199000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2196000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1874000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2104000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2385000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2061000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2156000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2213000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1926000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3539,292 +3634,301 @@
         <v>888000</v>
       </c>
       <c r="E44" s="3">
+        <v>888000</v>
+      </c>
+      <c r="F44" s="3">
         <v>835000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>842000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>748000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>689000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>618000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>596000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>569000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>565000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>550000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>628000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>646000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>653000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>644000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>647000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>635000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>608000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>536000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>554000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>505000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>487000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>453000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>481000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>498000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>501000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>465000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>463000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>477000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7975000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7867000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6485000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6970000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6213000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6597000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5736000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6061000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6699000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6185000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5296000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5435000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5838000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19355000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4022000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4044000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3933000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3622000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3179000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3116000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3215000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3167000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3384000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3247000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3309000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3331000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3195000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3311000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3275000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12809000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12681000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12297000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12815000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12210000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11674000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10376000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11077000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11527000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10289000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9067000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9602000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9798000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25013000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10558000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10165000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>11577000</v>
       </c>
       <c r="T46" s="3">
         <v>11577000</v>
       </c>
       <c r="U46" s="3">
+        <v>11577000</v>
+      </c>
+      <c r="V46" s="3">
         <v>10693000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9195000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6349000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6367000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5855000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6281000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6383000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6071000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5980000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6164000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>5749000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>75000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>113000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>68000</v>
       </c>
       <c r="L47" s="3">
         <v>68000</v>
@@ -3833,7 +3937,7 @@
         <v>68000</v>
       </c>
       <c r="N47" s="3">
-        <v>67000</v>
+        <v>68000</v>
       </c>
       <c r="O47" s="3">
         <v>67000</v>
@@ -3854,28 +3958,28 @@
         <v>67000</v>
       </c>
       <c r="U47" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="V47" s="3">
         <v>69000</v>
       </c>
       <c r="W47" s="3">
+        <v>69000</v>
+      </c>
+      <c r="X47" s="3">
         <v>67000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>66000</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>65000</v>
       </c>
       <c r="Z47" s="3">
         <v>65000</v>
       </c>
       <c r="AA47" s="3">
+        <v>65000</v>
+      </c>
+      <c r="AB47" s="3">
         <v>52000</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>70000</v>
       </c>
       <c r="AC47" s="3">
         <v>70000</v>
@@ -3886,97 +3990,103 @@
       <c r="AE47" s="3">
         <v>70000</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>81671000</v>
+      </c>
+      <c r="E48" s="3">
         <v>80191000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>78768000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>77519000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>76274000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74781000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72644000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>72179000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>71696000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70737000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>69799000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>68719000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>67334000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>66174000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>65391000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>64577000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>64713000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>63831000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>62840000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>59347000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>56965000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>55808000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>54655000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>53868000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>52523000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>51636000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>51080000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>50657000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>49511000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4064,8 +4174,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28520000</v>
+      </c>
+      <c r="E52" s="3">
         <v>27821000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28531000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28285000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28486000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27011000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20798000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20062000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20270000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19400000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19624000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19468000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18388000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17975000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10672000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10387000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9356000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8912000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8685000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8384000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8004000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7648000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7579000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7798000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>12568000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>12278000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>12034000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>11707000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>11235000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123009000</v>
+      </c>
+      <c r="E54" s="3">
         <v>120705000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119612000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118644000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117012000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113541000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103931000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103327000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103561000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100494000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98558000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97856000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95587000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109229000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86688000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85196000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85713000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84387000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82287000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76995000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71385000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>69889000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>68154000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>68012000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>71526000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>70055000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>69164000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>68598000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>66565000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,148 +4704,152 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2689000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2366000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2324000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2888000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2964000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3029000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2389000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2855000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2697000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2250000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2141000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2402000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2756000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3399000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1851000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1954000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1844000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1679000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>867000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1975000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1699000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1477000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1231000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1646000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1419000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1389000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1117000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1495000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1370000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4433000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3874000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5021000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4323000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2825000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4129000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6407000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6665000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6988000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6633000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2970000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3575000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2432000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2750000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1500000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -4724,393 +4857,408 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>21994000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>943000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1643000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1361000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1376000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1569000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1880000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1463000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1305000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8050000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6962000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7456000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8577000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8238000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7849000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7764000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7907000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8099000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6610000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7106000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7604000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8133000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39646000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4402000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4177000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4628000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4032000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3941000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17726000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6847000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6666000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4328000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4107000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4485000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3679000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3958000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3853000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3595000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15172000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13202000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14801000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15788000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14027000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15007000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16560000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17427000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17784000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15493000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12217000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13581000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13321000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45795000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8253000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7631000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6472000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5711000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4808000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>41695000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9489000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9786000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6920000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7129000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7473000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6948000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6538000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7564000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>6270000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50902000</v>
+      </c>
+      <c r="E61" s="3">
         <v>50230000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48508000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>47742000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47854000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44174000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39123000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38225000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35959000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35955000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37801000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37288000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36311000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34920000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23298000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23116000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23963000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23961000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22811000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>18407000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17612000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17407000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>17753000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16619000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16616000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16813000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>16220000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>16528000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32551000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33258000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32717000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32039000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32645000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32341000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26604000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26452000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29091000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27247000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27161000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25734000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24891000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24713000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49378000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49061000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46287000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44121000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41539000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22397000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23793000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23430000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23844000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>23658000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>28148000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>27600000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>27208000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>26622000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>26161000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98877000</v>
+      </c>
+      <c r="E66" s="3">
         <v>96942000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>96278000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>95821000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94778000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91774000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82539000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82356000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83086000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78947000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77431000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76855000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74775000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>105680000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81181000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>80060000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>76974000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74045000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>69410000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64344000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>51941000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>51080000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48423000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>48792000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>52492000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>51416000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>50811000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>50658000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>49211000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6219000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6567000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6973000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7542000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8055000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8511000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8867000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9284000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9760000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8672000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9073000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9196000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9400000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9486000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7518000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7892000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4279000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2663000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-114000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-250000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6623000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6057000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7043000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6596000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6482000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6205000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6070000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5751000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>5278000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24132000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23763000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23334000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22823000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22234000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21767000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21392000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20971000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20475000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21547000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21127000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21001000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20812000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3549000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5507000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5136000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8739000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10342000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12877000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12651000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19444000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18809000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19731000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19220000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19034000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18639000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18353000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>17940000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>17354000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E81" s="3">
         <v>406000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>569000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>513000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>456000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>356000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>475000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>472000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1091000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>397000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>120000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1972000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>371000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3617000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1619000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2553000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>133000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6873000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>564000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-984000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>442000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>114000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>550000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>406000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>576000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>692000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>388000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>811000</v>
+      </c>
+      <c r="E83" s="3">
         <v>997000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1077000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>941000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1002000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>941000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>972000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>863000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>801000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>851000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>888000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>894000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>845000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>874000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>855000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>801000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>840000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>796000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>797000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>779000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>759000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>746000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>752000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>720000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>710000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>712000</v>
       </c>
       <c r="AC83" s="3">
         <v>712000</v>
       </c>
       <c r="AD83" s="3">
+        <v>712000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>665000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>694000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1275000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1185000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1009000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1073000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1661000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>209000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>823000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1198000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>89000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22510000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1686000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1605000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>749000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1310000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>513000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2244000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>516000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1483000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1241000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1512000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1240000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1981000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1182000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1574000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1126000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2421000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2392000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2288000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2173000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2872000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2229000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2310000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2221000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1848000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1842000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2215000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2076000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1758000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1641000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1782000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1186000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1224000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1922000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1695000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1427000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1470000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1703000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1464000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1258000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1216000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>2547000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2954000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2291000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2280000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2140000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1896000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3338000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2650000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2330000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2227000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1110000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1796000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2224000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2083000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1786000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1655000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2128000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1816000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1187000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1247000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1947000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1722000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1420000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1475000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1461000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1254000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1235000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1443000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1397000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,8 +7881,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7721,25 +7954,28 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-267000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-266000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-245000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-243000</v>
       </c>
       <c r="AD96" s="3">
         <v>-243000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-238000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,97 +8247,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E100" s="3">
         <v>652000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1423000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1427000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2357000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2711000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>638000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1894000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>399000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1801000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>229000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2083000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9891000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13514000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>440000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>17000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1168000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2669000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>152000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>552000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>718000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-507000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>86000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-352000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>388000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-188000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8183,93 +8431,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-353000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>468000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>540000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>92000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-124000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-369000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-52000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14702000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13414000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>390000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-489000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>494000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1297000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1238000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-87000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>373000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-305000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>258000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>13000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>14000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>106000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-118000</v>
       </c>
     </row>
